--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT9" t="n">
         <v>0.6</v>
@@ -2933,7 +2933,7 @@
         <v>2.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT15" t="n">
         <v>2.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT20" t="n">
         <v>1.2</v>
@@ -5369,7 +5369,7 @@
         <v>2.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU24" t="n">
         <v>1.42</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU28" t="n">
         <v>0.95</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT35" t="n">
         <v>0.67</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>2.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>2.61</v>
@@ -11256,7 +11256,7 @@
         <v>0.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>0.93</v>
@@ -11659,7 +11659,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT55" t="n">
         <v>2.5</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT60" t="n">
         <v>2.33</v>
@@ -14759,6 +14759,412 @@
       </c>
       <c r="BK70" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5182912</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45037.79166666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5182918</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45037.875</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['65', '77']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>6</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7</v>
+      </c>
+      <c r="S72" t="n">
+        <v>13</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1.4</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT5" t="n">
         <v>1.4</v>
@@ -2730,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.4</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU29" t="n">
         <v>1.67</v>
@@ -6587,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
         <v>2.94</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT38" t="n">
         <v>0.5</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.77</v>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU46" t="n">
         <v>2.44</v>
@@ -12471,10 +12471,10 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.86</v>
@@ -12880,7 +12880,7 @@
         <v>1.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU61" t="n">
         <v>1.61</v>
@@ -15165,6 +15165,412 @@
       </c>
       <c r="BK72" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5182917</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45038.77083333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>9</v>
+      </c>
+      <c r="S73" t="n">
+        <v>11</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>19</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5182919</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45038.875</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>10</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>8</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.2</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT13" t="n">
         <v>1.5</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -5166,7 +5166,7 @@
         <v>1.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU23" t="n">
         <v>1.86</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>1.5</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.33</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT30" t="n">
         <v>1.2</v>
@@ -6993,7 +6993,7 @@
         <v>0.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9</v>
@@ -8008,7 +8008,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU37" t="n">
         <v>2.02</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT42" t="n">
         <v>2.5</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>1.2</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT46" t="n">
         <v>0.8</v>
@@ -10038,7 +10038,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.43</v>
@@ -11865,7 +11865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT57" t="n">
         <v>0.6</v>
@@ -12268,10 +12268,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU58" t="n">
         <v>2.12</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>0.8</v>
@@ -15571,6 +15571,615 @@
       </c>
       <c r="BK74" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5182916</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['9', '50', '67']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['3', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>8</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5182913</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45039.77083333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['45+7']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['65', '75', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7</v>
+      </c>
+      <c r="S76" t="n">
+        <v>12</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5182915</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45039.85416666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['19', '85', '90+8']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['40', '76']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V77" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT7" t="n">
         <v>1.8</v>
@@ -2324,7 +2324,7 @@
         <v>0.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.2</v>
@@ -3542,7 +3542,7 @@
         <v>1.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT18" t="n">
         <v>1.4</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.86</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>0.8</v>
@@ -6790,7 +6790,7 @@
         <v>2.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU31" t="n">
         <v>2.79</v>
@@ -7805,7 +7805,7 @@
         <v>2.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.6</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -9023,7 +9023,7 @@
         <v>2.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>0.2</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.46</v>
@@ -11662,7 +11662,7 @@
         <v>0.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU55" t="n">
         <v>1.69</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
         <v>1.8</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT65" t="n">
         <v>0.33</v>
@@ -13895,7 +13895,7 @@
         <v>0.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>0.98</v>
@@ -16180,6 +16180,412 @@
       </c>
       <c r="BK77" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5182927</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45044.66666666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5182920</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45044.875</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['20', '63', '84']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>7</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT6" t="n">
         <v>2.33</v>
@@ -3136,7 +3136,7 @@
         <v>2.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1.4</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>2.22</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT52" t="n">
         <v>1.2</v>
@@ -13286,7 +13286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.84</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT69" t="n">
         <v>0.67</v>
@@ -16586,6 +16586,209 @@
       </c>
       <c r="BK79" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5182921</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45045.875</v>
+      </c>
+      <c r="F80" t="n">
+        <v>11</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['24', '49', '82']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>6</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0.2</v>
@@ -1512,7 +1512,7 @@
         <v>1.8</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>0.8</v>
@@ -3948,7 +3948,7 @@
         <v>2.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU19" t="n">
         <v>0.88</v>
@@ -4557,7 +4557,7 @@
         <v>0.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>2.27</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.8</v>
@@ -5775,7 +5775,7 @@
         <v>2.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>0.2</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.82</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT34" t="n">
         <v>1.4</v>
@@ -7602,7 +7602,7 @@
         <v>0.8</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>2.06</v>
@@ -8414,7 +8414,7 @@
         <v>0.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>2.21</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
         <v>1.4</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT45" t="n">
         <v>2.33</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.64</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU62" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1.25</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -13692,7 +13692,7 @@
         <v>0.83</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.94</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5</v>
@@ -14298,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT68" t="n">
         <v>1.4</v>
@@ -14504,7 +14504,7 @@
         <v>2.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14704,10 +14704,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.39</v>
@@ -16789,6 +16789,818 @@
       </c>
       <c r="BK80" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5182923</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['45+4', '51']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7</v>
+      </c>
+      <c r="S81" t="n">
+        <v>12</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5182926</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45046.77083333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['45+7', '86', '89']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['25', '51']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>7</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>11</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5182925</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45046.85416666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Municipal Vinto</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['9', '79', '84', '90']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>6</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>4</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5182922</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45047.66666666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>7</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>1.88</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.8</v>
@@ -8211,7 +8211,7 @@
         <v>2.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -10444,7 +10444,7 @@
         <v>0.83</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.76</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT51" t="n">
         <v>1.4</v>
@@ -13486,7 +13486,7 @@
         <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT64" t="n">
         <v>1.17</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU67" t="n">
         <v>1.53</v>
@@ -17601,6 +17601,209 @@
       </c>
       <c r="BK84" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5182924</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45048.66666666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>6</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6</v>
+      </c>
+      <c r="S85" t="n">
+        <v>12</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT5" t="n">
         <v>1.17</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>1.2</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.43</v>
@@ -12271,7 +12271,7 @@
         <v>2.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU58" t="n">
         <v>2.12</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT59" t="n">
         <v>1.2</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT73" t="n">
         <v>0.8</v>
@@ -16128,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -17804,6 +17804,209 @@
       </c>
       <c r="BK85" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5182932</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45051.83333333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['90+1', '90+9']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['30', '65']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK86"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>2.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.83</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.86</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT25" t="n">
         <v>1.2</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU37" t="n">
         <v>2.02</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT42" t="n">
         <v>2.6</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT44" t="n">
         <v>1.2</v>
@@ -9632,7 +9632,7 @@
         <v>2.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU45" t="n">
         <v>3.01</v>
@@ -11659,7 +11659,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT55" t="n">
         <v>2.6</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT57" t="n">
         <v>0.6</v>
@@ -12677,7 +12677,7 @@
         <v>1.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU60" t="n">
         <v>1.51</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT61" t="n">
         <v>0.8</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT72" t="n">
         <v>0.6</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -15925,7 +15925,7 @@
         <v>2.4</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU76" t="n">
         <v>2.14</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT77" t="n">
         <v>0.33</v>
@@ -18007,6 +18007,615 @@
       </c>
       <c r="BK86" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5182931</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['58', '90+3']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5182930</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45052.77083333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>12</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>8</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5182933</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45052.875</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['64', '90+3']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6</v>
+      </c>
+      <c r="S89" t="n">
+        <v>11</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>5</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT13" t="n">
         <v>1.2</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>0.83</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>2.71</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.17</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU24" t="n">
         <v>1.42</v>
@@ -6181,7 +6181,7 @@
         <v>1.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU28" t="n">
         <v>0.95</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU29" t="n">
         <v>1.67</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT30" t="n">
         <v>1.2</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
         <v>2.6</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>2.25</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT38" t="n">
         <v>0.6</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.62</v>
@@ -9832,10 +9832,10 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>2.44</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU48" t="n">
         <v>2.61</v>
@@ -10850,7 +10850,7 @@
         <v>1.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>2.26</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU53" t="n">
         <v>0.93</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>2.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT58" t="n">
         <v>0.33</v>
@@ -12880,7 +12880,7 @@
         <v>1.83</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU61" t="n">
         <v>1.61</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -14301,7 +14301,7 @@
         <v>2.4</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU68" t="n">
         <v>2.84</v>
@@ -14910,7 +14910,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.46</v>
@@ -15113,7 +15113,7 @@
         <v>1.17</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.82</v>
@@ -15316,7 +15316,7 @@
         <v>1.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU73" t="n">
         <v>1.68</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.2</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT76" t="n">
         <v>1.67</v>
@@ -18616,6 +18616,818 @@
       </c>
       <c r="BK89" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5182934</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['44', '89']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['51', '82']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5182929</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45053.77083333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Municipal Vinto</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>7</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5182935</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45053.875</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['90+13']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>8</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5182928</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT4" t="n">
         <v>1.67</v>
@@ -1715,7 +1715,7 @@
         <v>2.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.83</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.8</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>1.17</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.67</v>
@@ -7602,7 +7602,7 @@
         <v>1.17</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>2.06</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT38" t="n">
         <v>0.6</v>
@@ -9632,7 +9632,7 @@
         <v>2.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU45" t="n">
         <v>3.01</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>1.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.51</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -13692,7 +13692,7 @@
         <v>0.83</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU65" t="n">
         <v>1.94</v>
@@ -14504,7 +14504,7 @@
         <v>2.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT74" t="n">
         <v>1.2</v>
@@ -16937,10 +16937,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17549,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -18158,7 +18158,7 @@
         <v>2.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU87" t="n">
         <v>1.98</v>
@@ -18764,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT90" t="n">
         <v>0.83</v>
@@ -19089,10 +19089,10 @@
         <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T92" t="n">
         <v>2.5</v>
@@ -19170,7 +19170,7 @@
         <v>0.6</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT92" t="n">
         <v>0.67</v>
@@ -19428,6 +19428,615 @@
       </c>
       <c r="BK93" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5182863</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45056.66666666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>10</v>
+      </c>
+      <c r="S94" t="n">
+        <v>11</v>
+      </c>
+      <c r="T94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5182888</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45056.77083333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>8</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>8</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5182889</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45056.875</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>6</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>5</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT11" t="n">
         <v>1.2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT12" t="n">
         <v>0.67</v>
@@ -4557,7 +4557,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU20" t="n">
         <v>2.27</v>
@@ -4760,7 +4760,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.88</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT29" t="n">
         <v>0.83</v>
@@ -7196,7 +7196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU33" t="n">
         <v>1.82</v>
@@ -8211,7 +8211,7 @@
         <v>2.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT45" t="n">
         <v>1.6</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT47" t="n">
         <v>0.33</v>
@@ -10444,7 +10444,7 @@
         <v>0.83</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.76</v>
@@ -11053,7 +11053,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU52" t="n">
         <v>1.64</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT56" t="n">
         <v>1.67</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.53</v>
@@ -14298,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1.33</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU70" t="n">
         <v>1.39</v>
@@ -16328,7 +16328,7 @@
         <v>0.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT82" t="n">
         <v>1.17</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU83" t="n">
         <v>1.18</v>
@@ -17752,7 +17752,7 @@
         <v>1.2</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU85" t="n">
         <v>2.21</v>
@@ -20037,6 +20037,412 @@
       </c>
       <c r="BK96" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5182942</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45058.79166666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Municipal Vinto</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>7</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>10</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5182941</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45058.875</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['44', '67', '73']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>10</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>14</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V98" t="n">
+        <v>6</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK98"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT2" t="n">
         <v>0.33</v>
@@ -1512,7 +1512,7 @@
         <v>1.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT6" t="n">
         <v>1.6</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.83</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.17</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.83</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.83</v>
@@ -3948,7 +3948,7 @@
         <v>1.8</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0.88</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT23" t="n">
         <v>1.67</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT24" t="n">
         <v>1.67</v>
@@ -5572,7 +5572,7 @@
         <v>1.83</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -5775,7 +5775,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.67</v>
@@ -6587,7 +6587,7 @@
         <v>2.17</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU30" t="n">
         <v>2.94</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU31" t="n">
         <v>2.79</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>0.33</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT34" t="n">
         <v>1.67</v>
@@ -7602,7 +7602,7 @@
         <v>1.17</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU35" t="n">
         <v>2.06</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>1.67</v>
@@ -8414,7 +8414,7 @@
         <v>0.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>2.21</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT40" t="n">
         <v>1.33</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>2.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9226,7 +9226,7 @@
         <v>1.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>2.22</v>
@@ -9429,7 +9429,7 @@
         <v>1.83</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU44" t="n">
         <v>1.77</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.33</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT52" t="n">
         <v>1.29</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT53" t="n">
         <v>1.67</v>
@@ -11662,7 +11662,7 @@
         <v>1.17</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU55" t="n">
         <v>1.69</v>
@@ -12474,7 +12474,7 @@
         <v>1.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU59" t="n">
         <v>1.86</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
         <v>1.6</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.5</v>
@@ -13286,7 +13286,7 @@
         <v>1.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.84</v>
@@ -13486,10 +13486,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -13692,7 +13692,7 @@
         <v>0.83</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
         <v>1.94</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT70" t="n">
         <v>1.29</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
         <v>1.67</v>
@@ -15519,7 +15519,7 @@
         <v>2.33</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU74" t="n">
         <v>1.87</v>
@@ -16534,7 +16534,7 @@
         <v>0.83</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU79" t="n">
         <v>1.86</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU80" t="n">
         <v>1.75</v>
@@ -16937,10 +16937,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17143,7 +17143,7 @@
         <v>2.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>2.54</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT83" t="n">
         <v>1.29</v>
@@ -17546,10 +17546,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -17749,7 +17749,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5</v>
@@ -19576,7 +19576,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT94" t="n">
         <v>1.6</v>
@@ -19782,7 +19782,7 @@
         <v>2.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -19985,7 +19985,7 @@
         <v>1.17</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU96" t="n">
         <v>1.58</v>
@@ -20442,6 +20442,1224 @@
         <v>30</v>
       </c>
       <c r="BK98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5182938</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>10</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6</v>
+      </c>
+      <c r="S99" t="n">
+        <v>16</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5182940</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45059.83333333334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>7</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V100" t="n">
+        <v>5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5182937</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>7</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>9</v>
+      </c>
+      <c r="T101" t="n">
+        <v>5</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5182943</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45060.77083333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['27', '52']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>7</v>
+      </c>
+      <c r="S102" t="n">
+        <v>11</v>
+      </c>
+      <c r="T102" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5182936</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45060.85416666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['42', '48']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['86', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>6</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>7</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5182939</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45061.66666666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['31', '43', '73']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>10</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>12</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V104" t="n">
+        <v>8</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>36</v>
+      </c>
+      <c r="BK104" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.17</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.14</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT8" t="n">
         <v>1.29</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT14" t="n">
         <v>0.83</v>
@@ -4151,7 +4151,7 @@
         <v>0.83</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU18" t="n">
         <v>2.71</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.29</v>
@@ -5369,7 +5369,7 @@
         <v>2.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU24" t="n">
         <v>1.42</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT25" t="n">
         <v>1.17</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT26" t="n">
         <v>0.67</v>
@@ -6993,7 +6993,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9</v>
@@ -7399,7 +7399,7 @@
         <v>1.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>0.83</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT38" t="n">
         <v>0.5</v>
@@ -8617,7 +8617,7 @@
         <v>1.71</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU40" t="n">
         <v>1.62</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT42" t="n">
         <v>2.17</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT44" t="n">
         <v>1.17</v>
@@ -9632,7 +9632,7 @@
         <v>2.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU45" t="n">
         <v>3.01</v>
@@ -10038,7 +10038,7 @@
         <v>0.83</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU47" t="n">
         <v>1.43</v>
@@ -10850,7 +10850,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU51" t="n">
         <v>2.26</v>
@@ -11256,7 +11256,7 @@
         <v>1.33</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU53" t="n">
         <v>0.93</v>
@@ -11659,7 +11659,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>2.17</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT57" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>2.17</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU58" t="n">
         <v>2.12</v>
@@ -12677,7 +12677,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU60" t="n">
         <v>1.51</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT61" t="n">
         <v>0.83</v>
@@ -14301,7 +14301,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU68" t="n">
         <v>2.84</v>
@@ -14910,7 +14910,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU71" t="n">
         <v>1.46</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
         <v>0.67</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT74" t="n">
         <v>1.17</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -16125,10 +16125,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -17955,7 +17955,7 @@
         <v>1.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18155,10 +18155,10 @@
         <v>2.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU87" t="n">
         <v>1.98</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT88" t="n">
         <v>1.67</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
         <v>0</v>
@@ -18764,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT90" t="n">
         <v>0.83</v>
@@ -18970,7 +18970,7 @@
         <v>1.8</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU91" t="n">
         <v>2.43</v>
@@ -19376,7 +19376,7 @@
         <v>2.17</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -19579,7 +19579,7 @@
         <v>1.83</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU94" t="n">
         <v>1.87</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT95" t="n">
         <v>0.67</v>
@@ -21661,6 +21661,818 @@
       </c>
       <c r="BK104" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5182946</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45065.66666666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['22', '88']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5182945</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45065.875</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['13', '55']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>8</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5182948</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['60', '71']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>6</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>8</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5182949</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45066.875</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>4</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['5', '50', '78', '89']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>7</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>11</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X108" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.67</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT18" t="n">
         <v>1.57</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU22" t="n">
         <v>1.86</v>
@@ -5166,7 +5166,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU23" t="n">
         <v>1.86</v>
@@ -6384,7 +6384,7 @@
         <v>0.83</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU29" t="n">
         <v>1.67</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>2.17</v>
@@ -7805,7 +7805,7 @@
         <v>2.14</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU36" t="n">
         <v>1.6</v>
@@ -8008,7 +8008,7 @@
         <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU37" t="n">
         <v>2.02</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT43" t="n">
         <v>1.17</v>
@@ -9835,7 +9835,7 @@
         <v>2.17</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU46" t="n">
         <v>2.44</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>0.67</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5</v>
@@ -10647,7 +10647,7 @@
         <v>1.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU50" t="n">
         <v>1.46</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0.83</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -12880,7 +12880,7 @@
         <v>1.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU61" t="n">
         <v>1.61</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -13895,7 +13895,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU66" t="n">
         <v>0.98</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU73" t="n">
         <v>1.68</v>
@@ -15925,7 +15925,7 @@
         <v>2.17</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU76" t="n">
         <v>2.14</v>
@@ -16331,7 +16331,7 @@
         <v>0.83</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU78" t="n">
         <v>1.6</v>
@@ -16531,7 +16531,7 @@
         <v>2.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT79" t="n">
         <v>2.17</v>
@@ -17952,7 +17952,7 @@
         <v>0.2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT86" t="n">
         <v>0.29</v>
@@ -18361,7 +18361,7 @@
         <v>1.57</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU88" t="n">
         <v>1.66</v>
@@ -18767,7 +18767,7 @@
         <v>2.43</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU90" t="n">
         <v>1.92</v>
@@ -18967,7 +18967,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT91" t="n">
         <v>1.43</v>
@@ -22472,6 +22472,615 @@
         <v>22</v>
       </c>
       <c r="BK108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5182951</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['3', '69']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5182947</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5182944</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45067.85416666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Municipal Vinto</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>11</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>11</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V111" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK111" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT2" t="n">
         <v>0.29</v>
@@ -2121,7 +2121,7 @@
         <v>2.43</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT11" t="n">
         <v>1.17</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.57</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT15" t="n">
         <v>2.17</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT16" t="n">
         <v>0.71</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU20" t="n">
         <v>2.27</v>
@@ -4760,7 +4760,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU21" t="n">
         <v>1.88</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT23" t="n">
         <v>1.57</v>
@@ -5572,7 +5572,7 @@
         <v>1.57</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU25" t="n">
         <v>1.07</v>
@@ -5775,7 +5775,7 @@
         <v>2.43</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU28" t="n">
         <v>0.95</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT29" t="n">
         <v>0.71</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT30" t="n">
         <v>1.17</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT32" t="n">
         <v>0.29</v>
@@ -7196,7 +7196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU33" t="n">
         <v>1.82</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU35" t="n">
         <v>2.06</v>
@@ -8211,7 +8211,7 @@
         <v>2.43</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT40" t="n">
         <v>1.57</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>1.57</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU43" t="n">
         <v>2.22</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT45" t="n">
         <v>1.83</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT46" t="n">
         <v>0.71</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT47" t="n">
         <v>0.29</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU48" t="n">
         <v>2.61</v>
@@ -10444,7 +10444,7 @@
         <v>1.14</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU49" t="n">
         <v>1.76</v>
@@ -11053,7 +11053,7 @@
         <v>2.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU52" t="n">
         <v>1.64</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT53" t="n">
         <v>1.43</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT56" t="n">
         <v>1.57</v>
@@ -12068,7 +12068,7 @@
         <v>2.43</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT58" t="n">
         <v>0.29</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT60" t="n">
         <v>1.83</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>1.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU63" t="n">
         <v>1.84</v>
@@ -13692,7 +13692,7 @@
         <v>1.14</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU65" t="n">
         <v>1.94</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT66" t="n">
         <v>1.29</v>
@@ -14095,10 +14095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU67" t="n">
         <v>1.53</v>
@@ -14298,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT68" t="n">
         <v>1.57</v>
@@ -14504,7 +14504,7 @@
         <v>2.14</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14707,7 +14707,7 @@
         <v>1.83</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU70" t="n">
         <v>1.39</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT71" t="n">
         <v>1.43</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU72" t="n">
         <v>1.82</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT76" t="n">
         <v>1.57</v>
@@ -16328,7 +16328,7 @@
         <v>0.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT78" t="n">
         <v>1.29</v>
@@ -16737,7 +16737,7 @@
         <v>2.14</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU80" t="n">
         <v>1.75</v>
@@ -16940,7 +16940,7 @@
         <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17140,7 +17140,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17343,10 +17343,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU83" t="n">
         <v>1.18</v>
@@ -17546,10 +17546,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -17752,7 +17752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU85" t="n">
         <v>2.21</v>
@@ -19173,7 +19173,7 @@
         <v>1.17</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU92" t="n">
         <v>1.69</v>
@@ -19373,7 +19373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT93" t="n">
         <v>1.57</v>
@@ -19782,7 +19782,7 @@
         <v>2.43</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -19985,7 +19985,7 @@
         <v>1.17</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU96" t="n">
         <v>1.58</v>
@@ -20185,10 +20185,10 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU97" t="n">
         <v>1.52</v>
@@ -20388,10 +20388,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU98" t="n">
         <v>2.32</v>
@@ -20594,7 +20594,7 @@
         <v>1.83</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU99" t="n">
         <v>1.77</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU100" t="n">
         <v>1.24</v>
@@ -20997,7 +20997,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT101" t="n">
         <v>2.17</v>
@@ -21200,7 +21200,7 @@
         <v>1.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21609,7 +21609,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU104" t="n">
         <v>2.15</v>
@@ -23082,6 +23082,1224 @@
       </c>
       <c r="BK111" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5182959</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45072.875</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Municipal Vinto</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>5</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>6</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['45', '75', '80', '90+2', '90+5']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>6</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5182952</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['12', '57']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5182955</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45073.77083333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>6</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>9</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5182958</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45073.875</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['18', '21', '88']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>7</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2</v>
+      </c>
+      <c r="S115" t="n">
+        <v>9</v>
+      </c>
+      <c r="T115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5182956</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45074.77083333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>6</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>6</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['11', '20', '44', '60', '67', '71']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>8</v>
+      </c>
+      <c r="R116" t="n">
+        <v>4</v>
+      </c>
+      <c r="S116" t="n">
+        <v>12</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V116" t="n">
+        <v>8</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5182957</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45074.85416666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>8</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>12</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,27 @@
     <t>['9', '48']</t>
   </si>
   <si>
+    <t>['16', '25', '36', '72', '75']</t>
+  </si>
+  <si>
+    <t>['57', '79']</t>
+  </si>
+  <si>
+    <t>['34', '45', '85']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['3', '14']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -704,6 +725,12 @@
   </si>
   <si>
     <t>['18', '21', '88']</t>
+  </si>
+  <si>
+    <t>['19', '89']</t>
+  </si>
+  <si>
+    <t>['35', '43']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1399,7 +1426,7 @@
         <v>1.88</v>
       </c>
       <c r="AT2">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1500,7 +1527,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1587,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT3">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1778,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT4">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1882,7 +1909,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1969,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2160,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT6">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2264,7 +2291,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2351,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT7">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2455,7 +2482,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2542,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>1.13</v>
@@ -2736,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3028,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3410,7 +3437,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3688,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>0.71</v>
@@ -3792,7 +3819,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3983,7 +4010,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4261,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT17">
         <v>0.57</v>
@@ -4365,7 +4392,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4452,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT18">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU18">
         <v>2.71</v>
@@ -4556,7 +4583,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4643,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4747,7 +4774,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5025,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
         <v>0.86</v>
@@ -5216,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5320,7 +5347,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5410,7 +5437,7 @@
         <v>1.88</v>
       </c>
       <c r="AT23">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU23">
         <v>1.86</v>
@@ -5598,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU24">
         <v>1.42</v>
@@ -5702,7 +5729,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5789,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
         <v>1.14</v>
@@ -5980,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT26">
         <v>0.57</v>
@@ -6084,7 +6111,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6466,7 +6493,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6935,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
         <v>1.86</v>
@@ -7039,7 +7066,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7129,7 +7156,7 @@
         <v>1.29</v>
       </c>
       <c r="AT32">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU32">
         <v>0.9</v>
@@ -7230,7 +7257,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7317,7 +7344,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
         <v>1.13</v>
@@ -7421,7 +7448,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7511,7 +7538,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7612,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7890,10 +7917,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT36">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU36">
         <v>1.6</v>
@@ -7994,7 +8021,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8084,7 +8111,7 @@
         <v>1.71</v>
       </c>
       <c r="AT37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>2.02</v>
@@ -8272,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT38">
         <v>0.86</v>
@@ -8376,7 +8403,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8463,7 +8490,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8657,7 +8684,7 @@
         <v>1.88</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU40">
         <v>1.62</v>
@@ -8949,7 +8976,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9036,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT42">
         <v>1.86</v>
@@ -9140,7 +9167,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9227,7 +9254,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT43">
         <v>1.14</v>
@@ -9418,7 +9445,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9522,7 +9549,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9612,7 +9639,7 @@
         <v>2.57</v>
       </c>
       <c r="AT45">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AU45">
         <v>3.01</v>
@@ -9994,7 +10021,7 @@
         <v>1.14</v>
       </c>
       <c r="AT47">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU47">
         <v>1.43</v>
@@ -10095,7 +10122,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10182,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT48">
         <v>0.57</v>
@@ -10286,7 +10313,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10373,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
         <v>0.86</v>
@@ -10567,7 +10594,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10668,7 +10695,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10758,7 +10785,7 @@
         <v>1.71</v>
       </c>
       <c r="AT51">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>2.26</v>
@@ -10859,7 +10886,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -10946,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT52">
         <v>1.13</v>
@@ -11140,7 +11167,7 @@
         <v>1.29</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU53">
         <v>0.93</v>
@@ -11241,7 +11268,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11328,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
         <v>0</v>
@@ -11432,7 +11459,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11623,7 +11650,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11713,7 +11740,7 @@
         <v>1.14</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU56">
         <v>1.59</v>
@@ -11814,7 +11841,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11901,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT57">
         <v>0.57</v>
@@ -12095,7 +12122,7 @@
         <v>2.29</v>
       </c>
       <c r="AT58">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU58">
         <v>2.12</v>
@@ -12196,7 +12223,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12283,7 +12310,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12387,7 +12414,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12477,7 +12504,7 @@
         <v>1.29</v>
       </c>
       <c r="AT60">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AU60">
         <v>1.51</v>
@@ -12578,7 +12605,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12665,7 +12692,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT61">
         <v>0.71</v>
@@ -12960,7 +12987,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13047,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT63">
         <v>1.14</v>
@@ -13151,7 +13178,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13342,7 +13369,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13429,7 +13456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT65">
         <v>0.57</v>
@@ -13533,7 +13560,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13623,7 +13650,7 @@
         <v>1.29</v>
       </c>
       <c r="AT66">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU66">
         <v>0.98</v>
@@ -13915,7 +13942,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14005,7 +14032,7 @@
         <v>2.57</v>
       </c>
       <c r="AT68">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU68">
         <v>2.84</v>
@@ -14106,7 +14133,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14193,7 +14220,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT69">
         <v>0.71</v>
@@ -14297,7 +14324,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14488,7 +14515,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14578,7 +14605,7 @@
         <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU71">
         <v>1.46</v>
@@ -14679,7 +14706,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14957,7 +14984,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT73">
         <v>0.71</v>
@@ -15148,7 +15175,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -15252,7 +15279,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15339,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT75">
         <v>0</v>
@@ -15443,7 +15470,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15533,7 +15560,7 @@
         <v>2.29</v>
       </c>
       <c r="AT76">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU76">
         <v>2.14</v>
@@ -15634,7 +15661,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15721,10 +15748,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU77">
         <v>1.52</v>
@@ -15915,7 +15942,7 @@
         <v>1.14</v>
       </c>
       <c r="AT78">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU78">
         <v>1.6</v>
@@ -16016,7 +16043,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16103,7 +16130,7 @@
         <v>2.5</v>
       </c>
       <c r="AS79">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT79">
         <v>1.86</v>
@@ -16294,7 +16321,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
         <v>1.14</v>
@@ -16589,7 +16616,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16971,7 +16998,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17162,7 +17189,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17353,7 +17380,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17440,10 +17467,10 @@
         <v>0.2</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT86">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17544,7 +17571,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17631,10 +17658,10 @@
         <v>2.33</v>
       </c>
       <c r="AS87">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT87">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AU87">
         <v>1.98</v>
@@ -17822,10 +17849,10 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU88">
         <v>1.66</v>
@@ -18117,7 +18144,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18204,7 +18231,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT90">
         <v>0.71</v>
@@ -18395,10 +18422,10 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT91">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU91">
         <v>2.43</v>
@@ -18499,7 +18526,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18586,7 +18613,7 @@
         <v>0.6</v>
       </c>
       <c r="AS92">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT92">
         <v>0.57</v>
@@ -18780,7 +18807,7 @@
         <v>2.29</v>
       </c>
       <c r="AT93">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -18971,7 +18998,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19159,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT95">
         <v>0.57</v>
@@ -19263,7 +19290,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19350,7 +19377,7 @@
         <v>0.5</v>
       </c>
       <c r="AS96">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT96">
         <v>0.71</v>
@@ -19836,7 +19863,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20600,7 +20627,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20687,7 +20714,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -21069,10 +21096,10 @@
         <v>1.67</v>
       </c>
       <c r="AS105">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT105">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21173,7 +21200,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21260,10 +21287,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21364,7 +21391,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21454,7 +21481,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AU107">
         <v>1.76</v>
@@ -21555,7 +21582,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21642,10 +21669,10 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT108">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU108">
         <v>1.9</v>
@@ -21833,7 +21860,7 @@
         <v>0.83</v>
       </c>
       <c r="AS109">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT109">
         <v>0.71</v>
@@ -21937,7 +21964,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22024,10 +22051,10 @@
         <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT110">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22128,7 +22155,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22215,10 +22242,10 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT111">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU111">
         <v>2.36</v>
@@ -22319,7 +22346,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22510,7 +22537,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22892,7 +22919,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23798,6 +23825,1725 @@
       </c>
       <c r="BK119">
         <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5182914</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45077.66666666666</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>80</v>
+      </c>
+      <c r="H120" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>86</v>
+      </c>
+      <c r="P120" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q120">
+        <v>6</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>2.38</v>
+      </c>
+      <c r="V120">
+        <v>3.75</v>
+      </c>
+      <c r="W120">
+        <v>1.26</v>
+      </c>
+      <c r="X120">
+        <v>3.5</v>
+      </c>
+      <c r="Y120">
+        <v>2.25</v>
+      </c>
+      <c r="Z120">
+        <v>1.57</v>
+      </c>
+      <c r="AA120">
+        <v>5</v>
+      </c>
+      <c r="AB120">
+        <v>1.13</v>
+      </c>
+      <c r="AC120">
+        <v>1.86</v>
+      </c>
+      <c r="AD120">
+        <v>3.37</v>
+      </c>
+      <c r="AE120">
+        <v>3.27</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>15.75</v>
+      </c>
+      <c r="AH120">
+        <v>1.18</v>
+      </c>
+      <c r="AI120">
+        <v>4.55</v>
+      </c>
+      <c r="AJ120">
+        <v>1.6</v>
+      </c>
+      <c r="AK120">
+        <v>2.3</v>
+      </c>
+      <c r="AL120">
+        <v>1.53</v>
+      </c>
+      <c r="AM120">
+        <v>2.43</v>
+      </c>
+      <c r="AN120">
+        <v>1.29</v>
+      </c>
+      <c r="AO120">
+        <v>1.25</v>
+      </c>
+      <c r="AP120">
+        <v>1.73</v>
+      </c>
+      <c r="AQ120">
+        <v>1.5</v>
+      </c>
+      <c r="AR120">
+        <v>1.83</v>
+      </c>
+      <c r="AS120">
+        <v>1.29</v>
+      </c>
+      <c r="AT120">
+        <v>1.75</v>
+      </c>
+      <c r="AU120">
+        <v>2.38</v>
+      </c>
+      <c r="AV120">
+        <v>1.52</v>
+      </c>
+      <c r="AW120">
+        <v>3.9</v>
+      </c>
+      <c r="AX120">
+        <v>1.58</v>
+      </c>
+      <c r="AY120">
+        <v>8.5</v>
+      </c>
+      <c r="AZ120">
+        <v>2.82</v>
+      </c>
+      <c r="BA120">
+        <v>1.24</v>
+      </c>
+      <c r="BB120">
+        <v>1.46</v>
+      </c>
+      <c r="BC120">
+        <v>1.83</v>
+      </c>
+      <c r="BD120">
+        <v>2.28</v>
+      </c>
+      <c r="BE120">
+        <v>3.04</v>
+      </c>
+      <c r="BF120">
+        <v>6</v>
+      </c>
+      <c r="BG120">
+        <v>8</v>
+      </c>
+      <c r="BH120">
+        <v>16</v>
+      </c>
+      <c r="BI120">
+        <v>6</v>
+      </c>
+      <c r="BJ120">
+        <v>22</v>
+      </c>
+      <c r="BK120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5182967</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45079.83333333334</v>
+      </c>
+      <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" t="s">
+        <v>65</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>5</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121" t="s">
+        <v>170</v>
+      </c>
+      <c r="P121" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q121">
+        <v>9</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>1.91</v>
+      </c>
+      <c r="U121">
+        <v>2.38</v>
+      </c>
+      <c r="V121">
+        <v>7.5</v>
+      </c>
+      <c r="W121">
+        <v>1.32</v>
+      </c>
+      <c r="X121">
+        <v>3.1</v>
+      </c>
+      <c r="Y121">
+        <v>2.5</v>
+      </c>
+      <c r="Z121">
+        <v>1.48</v>
+      </c>
+      <c r="AA121">
+        <v>5.9</v>
+      </c>
+      <c r="AB121">
+        <v>1.1</v>
+      </c>
+      <c r="AC121">
+        <v>1.25</v>
+      </c>
+      <c r="AD121">
+        <v>5</v>
+      </c>
+      <c r="AE121">
+        <v>9.09</v>
+      </c>
+      <c r="AF121">
+        <v>1.03</v>
+      </c>
+      <c r="AG121">
+        <v>13</v>
+      </c>
+      <c r="AH121">
+        <v>1.22</v>
+      </c>
+      <c r="AI121">
+        <v>4</v>
+      </c>
+      <c r="AJ121">
+        <v>1.67</v>
+      </c>
+      <c r="AK121">
+        <v>2.02</v>
+      </c>
+      <c r="AL121">
+        <v>2.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.57</v>
+      </c>
+      <c r="AN121">
+        <v>1.04</v>
+      </c>
+      <c r="AO121">
+        <v>1.1</v>
+      </c>
+      <c r="AP121">
+        <v>2.81</v>
+      </c>
+      <c r="AQ121">
+        <v>2.14</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+      <c r="AS121">
+        <v>2.25</v>
+      </c>
+      <c r="AT121">
+        <v>0</v>
+      </c>
+      <c r="AU121">
+        <v>1.81</v>
+      </c>
+      <c r="AV121">
+        <v>1.06</v>
+      </c>
+      <c r="AW121">
+        <v>2.87</v>
+      </c>
+      <c r="AX121">
+        <v>1.1</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BA121">
+        <v>1.26</v>
+      </c>
+      <c r="BB121">
+        <v>1.49</v>
+      </c>
+      <c r="BC121">
+        <v>1.93</v>
+      </c>
+      <c r="BD121">
+        <v>2.45</v>
+      </c>
+      <c r="BE121">
+        <v>3.35</v>
+      </c>
+      <c r="BF121">
+        <v>13</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>10</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>23</v>
+      </c>
+      <c r="BK121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5182963</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>171</v>
+      </c>
+      <c r="P122" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>2.88</v>
+      </c>
+      <c r="U122">
+        <v>2.3</v>
+      </c>
+      <c r="V122">
+        <v>3.4</v>
+      </c>
+      <c r="W122">
+        <v>1.3</v>
+      </c>
+      <c r="X122">
+        <v>3.2</v>
+      </c>
+      <c r="Y122">
+        <v>2.5</v>
+      </c>
+      <c r="Z122">
+        <v>1.5</v>
+      </c>
+      <c r="AA122">
+        <v>6</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>2.05</v>
+      </c>
+      <c r="AD122">
+        <v>3.4</v>
+      </c>
+      <c r="AE122">
+        <v>3</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>11.5</v>
+      </c>
+      <c r="AH122">
+        <v>1.2</v>
+      </c>
+      <c r="AI122">
+        <v>4.1</v>
+      </c>
+      <c r="AJ122">
+        <v>1.62</v>
+      </c>
+      <c r="AK122">
+        <v>2.15</v>
+      </c>
+      <c r="AL122">
+        <v>1.51</v>
+      </c>
+      <c r="AM122">
+        <v>2.48</v>
+      </c>
+      <c r="AN122">
+        <v>1.36</v>
+      </c>
+      <c r="AO122">
+        <v>1.33</v>
+      </c>
+      <c r="AP122">
+        <v>1.53</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.43</v>
+      </c>
+      <c r="AS122">
+        <v>1</v>
+      </c>
+      <c r="AT122">
+        <v>1.38</v>
+      </c>
+      <c r="AU122">
+        <v>1.82</v>
+      </c>
+      <c r="AV122">
+        <v>1.18</v>
+      </c>
+      <c r="AW122">
+        <v>3</v>
+      </c>
+      <c r="AX122">
+        <v>2.05</v>
+      </c>
+      <c r="AY122">
+        <v>7.5</v>
+      </c>
+      <c r="AZ122">
+        <v>2.05</v>
+      </c>
+      <c r="BA122">
+        <v>1.35</v>
+      </c>
+      <c r="BB122">
+        <v>1.64</v>
+      </c>
+      <c r="BC122">
+        <v>2.1</v>
+      </c>
+      <c r="BD122">
+        <v>2.88</v>
+      </c>
+      <c r="BE122">
+        <v>4</v>
+      </c>
+      <c r="BF122">
+        <v>6</v>
+      </c>
+      <c r="BG122">
+        <v>8</v>
+      </c>
+      <c r="BH122">
+        <v>6</v>
+      </c>
+      <c r="BI122">
+        <v>8</v>
+      </c>
+      <c r="BJ122">
+        <v>12</v>
+      </c>
+      <c r="BK122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5182960</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45080.77083333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" t="s">
+        <v>76</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>86</v>
+      </c>
+      <c r="P123" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="T123">
+        <v>4</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>2.75</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>2.88</v>
+      </c>
+      <c r="Y123">
+        <v>2.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.4</v>
+      </c>
+      <c r="AA123">
+        <v>6.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>4.6</v>
+      </c>
+      <c r="AD123">
+        <v>3.8</v>
+      </c>
+      <c r="AE123">
+        <v>1.57</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>9.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.27</v>
+      </c>
+      <c r="AI123">
+        <v>3.5</v>
+      </c>
+      <c r="AJ123">
+        <v>1.57</v>
+      </c>
+      <c r="AK123">
+        <v>2.3</v>
+      </c>
+      <c r="AL123">
+        <v>1.72</v>
+      </c>
+      <c r="AM123">
+        <v>2.07</v>
+      </c>
+      <c r="AN123">
+        <v>1.57</v>
+      </c>
+      <c r="AO123">
+        <v>1.26</v>
+      </c>
+      <c r="AP123">
+        <v>1.27</v>
+      </c>
+      <c r="AQ123">
+        <v>1.57</v>
+      </c>
+      <c r="AR123">
+        <v>1</v>
+      </c>
+      <c r="AS123">
+        <v>1.5</v>
+      </c>
+      <c r="AT123">
+        <v>1</v>
+      </c>
+      <c r="AU123">
+        <v>1.59</v>
+      </c>
+      <c r="AV123">
+        <v>1.69</v>
+      </c>
+      <c r="AW123">
+        <v>3.28</v>
+      </c>
+      <c r="AX123">
+        <v>2.52</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>1.75</v>
+      </c>
+      <c r="BA123">
+        <v>1.36</v>
+      </c>
+      <c r="BB123">
+        <v>1.66</v>
+      </c>
+      <c r="BC123">
+        <v>2.14</v>
+      </c>
+      <c r="BD123">
+        <v>2.9</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>2</v>
+      </c>
+      <c r="BG123">
+        <v>2</v>
+      </c>
+      <c r="BH123">
+        <v>7</v>
+      </c>
+      <c r="BI123">
+        <v>6</v>
+      </c>
+      <c r="BJ123">
+        <v>9</v>
+      </c>
+      <c r="BK123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5182966</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45080.875</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>172</v>
+      </c>
+      <c r="P124" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q124">
+        <v>12</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>14</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>2.38</v>
+      </c>
+      <c r="V124">
+        <v>4.5</v>
+      </c>
+      <c r="W124">
+        <v>1.29</v>
+      </c>
+      <c r="X124">
+        <v>3.24</v>
+      </c>
+      <c r="Y124">
+        <v>2.5</v>
+      </c>
+      <c r="Z124">
+        <v>1.5</v>
+      </c>
+      <c r="AA124">
+        <v>5.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.12</v>
+      </c>
+      <c r="AC124">
+        <v>1.53</v>
+      </c>
+      <c r="AD124">
+        <v>3.9</v>
+      </c>
+      <c r="AE124">
+        <v>5</v>
+      </c>
+      <c r="AF124">
+        <v>1.03</v>
+      </c>
+      <c r="AG124">
+        <v>12</v>
+      </c>
+      <c r="AH124">
+        <v>1.19</v>
+      </c>
+      <c r="AI124">
+        <v>4.33</v>
+      </c>
+      <c r="AJ124">
+        <v>1.6</v>
+      </c>
+      <c r="AK124">
+        <v>2.2</v>
+      </c>
+      <c r="AL124">
+        <v>1.57</v>
+      </c>
+      <c r="AM124">
+        <v>2.34</v>
+      </c>
+      <c r="AN124">
+        <v>1.18</v>
+      </c>
+      <c r="AO124">
+        <v>1.22</v>
+      </c>
+      <c r="AP124">
+        <v>1.82</v>
+      </c>
+      <c r="AQ124">
+        <v>1.14</v>
+      </c>
+      <c r="AR124">
+        <v>0.29</v>
+      </c>
+      <c r="AS124">
+        <v>1.38</v>
+      </c>
+      <c r="AT124">
+        <v>0.25</v>
+      </c>
+      <c r="AU124">
+        <v>1.85</v>
+      </c>
+      <c r="AV124">
+        <v>1.2</v>
+      </c>
+      <c r="AW124">
+        <v>3.05</v>
+      </c>
+      <c r="AX124">
+        <v>1.64</v>
+      </c>
+      <c r="AY124">
+        <v>8</v>
+      </c>
+      <c r="AZ124">
+        <v>2.77</v>
+      </c>
+      <c r="BA124">
+        <v>1.33</v>
+      </c>
+      <c r="BB124">
+        <v>1.57</v>
+      </c>
+      <c r="BC124">
+        <v>1.97</v>
+      </c>
+      <c r="BD124">
+        <v>2.6</v>
+      </c>
+      <c r="BE124">
+        <v>3.92</v>
+      </c>
+      <c r="BF124">
+        <v>5</v>
+      </c>
+      <c r="BG124">
+        <v>2</v>
+      </c>
+      <c r="BH124">
+        <v>6</v>
+      </c>
+      <c r="BI124">
+        <v>3</v>
+      </c>
+      <c r="BJ124">
+        <v>11</v>
+      </c>
+      <c r="BK124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5182961</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>78</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>173</v>
+      </c>
+      <c r="P125" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q125">
+        <v>7</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>2.6</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>5</v>
+      </c>
+      <c r="W125">
+        <v>1.46</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>3.1</v>
+      </c>
+      <c r="Z125">
+        <v>1.31</v>
+      </c>
+      <c r="AA125">
+        <v>8.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.04</v>
+      </c>
+      <c r="AC125">
+        <v>1.84</v>
+      </c>
+      <c r="AD125">
+        <v>3.44</v>
+      </c>
+      <c r="AE125">
+        <v>4.48</v>
+      </c>
+      <c r="AF125">
+        <v>1.05</v>
+      </c>
+      <c r="AG125">
+        <v>7.75</v>
+      </c>
+      <c r="AH125">
+        <v>1.4</v>
+      </c>
+      <c r="AI125">
+        <v>2.8</v>
+      </c>
+      <c r="AJ125">
+        <v>2</v>
+      </c>
+      <c r="AK125">
+        <v>1.73</v>
+      </c>
+      <c r="AL125">
+        <v>2.1</v>
+      </c>
+      <c r="AM125">
+        <v>1.7</v>
+      </c>
+      <c r="AN125">
+        <v>1.19</v>
+      </c>
+      <c r="AO125">
+        <v>1.26</v>
+      </c>
+      <c r="AP125">
+        <v>1.71</v>
+      </c>
+      <c r="AQ125">
+        <v>2.43</v>
+      </c>
+      <c r="AR125">
+        <v>1.29</v>
+      </c>
+      <c r="AS125">
+        <v>2.5</v>
+      </c>
+      <c r="AT125">
+        <v>1.13</v>
+      </c>
+      <c r="AU125">
+        <v>1.78</v>
+      </c>
+      <c r="AV125">
+        <v>0.93</v>
+      </c>
+      <c r="AW125">
+        <v>2.71</v>
+      </c>
+      <c r="AX125">
+        <v>1.64</v>
+      </c>
+      <c r="AY125">
+        <v>8</v>
+      </c>
+      <c r="AZ125">
+        <v>2.77</v>
+      </c>
+      <c r="BA125">
+        <v>1.33</v>
+      </c>
+      <c r="BB125">
+        <v>1.62</v>
+      </c>
+      <c r="BC125">
+        <v>2.08</v>
+      </c>
+      <c r="BD125">
+        <v>2.75</v>
+      </c>
+      <c r="BE125">
+        <v>3.84</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
+        <v>3</v>
+      </c>
+      <c r="BI125">
+        <v>6</v>
+      </c>
+      <c r="BJ125">
+        <v>8</v>
+      </c>
+      <c r="BK125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5182964</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45081.77083333334</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>66</v>
+      </c>
+      <c r="H126" t="s">
+        <v>79</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>174</v>
+      </c>
+      <c r="P126" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q126">
+        <v>6</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <v>10</v>
+      </c>
+      <c r="T126">
+        <v>1.91</v>
+      </c>
+      <c r="U126">
+        <v>2.75</v>
+      </c>
+      <c r="V126">
+        <v>5.5</v>
+      </c>
+      <c r="W126">
+        <v>1.22</v>
+      </c>
+      <c r="X126">
+        <v>4</v>
+      </c>
+      <c r="Y126">
+        <v>2</v>
+      </c>
+      <c r="Z126">
+        <v>1.73</v>
+      </c>
+      <c r="AA126">
+        <v>4.33</v>
+      </c>
+      <c r="AB126">
+        <v>1.2</v>
+      </c>
+      <c r="AC126">
+        <v>1.37</v>
+      </c>
+      <c r="AD126">
+        <v>5.25</v>
+      </c>
+      <c r="AE126">
+        <v>7.3</v>
+      </c>
+      <c r="AF126">
+        <v>1.01</v>
+      </c>
+      <c r="AG126">
+        <v>23.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.12</v>
+      </c>
+      <c r="AI126">
+        <v>5.55</v>
+      </c>
+      <c r="AJ126">
+        <v>1.6</v>
+      </c>
+      <c r="AK126">
+        <v>2.2</v>
+      </c>
+      <c r="AL126">
+        <v>1.57</v>
+      </c>
+      <c r="AM126">
+        <v>2.25</v>
+      </c>
+      <c r="AN126">
+        <v>1.1</v>
+      </c>
+      <c r="AO126">
+        <v>1.14</v>
+      </c>
+      <c r="AP126">
+        <v>2.31</v>
+      </c>
+      <c r="AQ126">
+        <v>2.43</v>
+      </c>
+      <c r="AR126">
+        <v>1.57</v>
+      </c>
+      <c r="AS126">
+        <v>2.5</v>
+      </c>
+      <c r="AT126">
+        <v>1.38</v>
+      </c>
+      <c r="AU126">
+        <v>1.95</v>
+      </c>
+      <c r="AV126">
+        <v>1.2</v>
+      </c>
+      <c r="AW126">
+        <v>3.15</v>
+      </c>
+      <c r="AX126">
+        <v>1.34</v>
+      </c>
+      <c r="AY126">
+        <v>9</v>
+      </c>
+      <c r="AZ126">
+        <v>4.08</v>
+      </c>
+      <c r="BA126">
+        <v>1.35</v>
+      </c>
+      <c r="BB126">
+        <v>1.64</v>
+      </c>
+      <c r="BC126">
+        <v>2.1</v>
+      </c>
+      <c r="BD126">
+        <v>2.88</v>
+      </c>
+      <c r="BE126">
+        <v>4</v>
+      </c>
+      <c r="BF126">
+        <v>9</v>
+      </c>
+      <c r="BG126">
+        <v>7</v>
+      </c>
+      <c r="BH126">
+        <v>5</v>
+      </c>
+      <c r="BI126">
+        <v>7</v>
+      </c>
+      <c r="BJ126">
+        <v>14</v>
+      </c>
+      <c r="BK126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5182965</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45081.85416666666</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>67</v>
+      </c>
+      <c r="H127" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>175</v>
+      </c>
+      <c r="P127" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q127">
+        <v>5</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>3.25</v>
+      </c>
+      <c r="U127">
+        <v>2.1</v>
+      </c>
+      <c r="V127">
+        <v>3.25</v>
+      </c>
+      <c r="W127">
+        <v>1.39</v>
+      </c>
+      <c r="X127">
+        <v>2.75</v>
+      </c>
+      <c r="Y127">
+        <v>2.8</v>
+      </c>
+      <c r="Z127">
+        <v>1.38</v>
+      </c>
+      <c r="AA127">
+        <v>7.2</v>
+      </c>
+      <c r="AB127">
+        <v>1.06</v>
+      </c>
+      <c r="AC127">
+        <v>2.27</v>
+      </c>
+      <c r="AD127">
+        <v>3.48</v>
+      </c>
+      <c r="AE127">
+        <v>3.05</v>
+      </c>
+      <c r="AF127">
+        <v>1.02</v>
+      </c>
+      <c r="AG127">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH127">
+        <v>1.26</v>
+      </c>
+      <c r="AI127">
+        <v>3.34</v>
+      </c>
+      <c r="AJ127">
+        <v>1.9</v>
+      </c>
+      <c r="AK127">
+        <v>1.9</v>
+      </c>
+      <c r="AL127">
+        <v>1.78</v>
+      </c>
+      <c r="AM127">
+        <v>1.99</v>
+      </c>
+      <c r="AN127">
+        <v>1.45</v>
+      </c>
+      <c r="AO127">
+        <v>1.33</v>
+      </c>
+      <c r="AP127">
+        <v>1.45</v>
+      </c>
+      <c r="AQ127">
+        <v>1.17</v>
+      </c>
+      <c r="AR127">
+        <v>2</v>
+      </c>
+      <c r="AS127">
+        <v>1.43</v>
+      </c>
+      <c r="AT127">
+        <v>1.75</v>
+      </c>
+      <c r="AU127">
+        <v>1.49</v>
+      </c>
+      <c r="AV127">
+        <v>1.56</v>
+      </c>
+      <c r="AW127">
+        <v>3.05</v>
+      </c>
+      <c r="AX127">
+        <v>1.91</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>2.2</v>
+      </c>
+      <c r="BA127">
+        <v>1.31</v>
+      </c>
+      <c r="BB127">
+        <v>1.57</v>
+      </c>
+      <c r="BC127">
+        <v>2</v>
+      </c>
+      <c r="BD127">
+        <v>2.6</v>
+      </c>
+      <c r="BE127">
+        <v>3.64</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>3</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>7</v>
+      </c>
+      <c r="BJ127">
+        <v>8</v>
+      </c>
+      <c r="BK127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5182962</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45082.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>68</v>
+      </c>
+      <c r="H128" t="s">
+        <v>74</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>176</v>
+      </c>
+      <c r="P128" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q128">
+        <v>5</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>2.1</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1.38</v>
+      </c>
+      <c r="X128">
+        <v>2.75</v>
+      </c>
+      <c r="Y128">
+        <v>2.8</v>
+      </c>
+      <c r="Z128">
+        <v>1.37</v>
+      </c>
+      <c r="AA128">
+        <v>7.5</v>
+      </c>
+      <c r="AB128">
+        <v>1.08</v>
+      </c>
+      <c r="AC128">
+        <v>2.15</v>
+      </c>
+      <c r="AD128">
+        <v>3.2</v>
+      </c>
+      <c r="AE128">
+        <v>3.15</v>
+      </c>
+      <c r="AF128">
+        <v>1.04</v>
+      </c>
+      <c r="AG128">
+        <v>10.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.28</v>
+      </c>
+      <c r="AI128">
+        <v>3.3</v>
+      </c>
+      <c r="AJ128">
+        <v>1.9</v>
+      </c>
+      <c r="AK128">
+        <v>1.8</v>
+      </c>
+      <c r="AL128">
+        <v>1.68</v>
+      </c>
+      <c r="AM128">
+        <v>2.05</v>
+      </c>
+      <c r="AN128">
+        <v>1.32</v>
+      </c>
+      <c r="AO128">
+        <v>1.31</v>
+      </c>
+      <c r="AP128">
+        <v>1.64</v>
+      </c>
+      <c r="AQ128">
+        <v>1.57</v>
+      </c>
+      <c r="AR128">
+        <v>1.57</v>
+      </c>
+      <c r="AS128">
+        <v>1.75</v>
+      </c>
+      <c r="AT128">
+        <v>1.38</v>
+      </c>
+      <c r="AU128">
+        <v>1.6</v>
+      </c>
+      <c r="AV128">
+        <v>1.54</v>
+      </c>
+      <c r="AW128">
+        <v>3.14</v>
+      </c>
+      <c r="AX128">
+        <v>1.95</v>
+      </c>
+      <c r="AY128">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128">
+        <v>2.1</v>
+      </c>
+      <c r="BA128">
+        <v>1.45</v>
+      </c>
+      <c r="BB128">
+        <v>1.8</v>
+      </c>
+      <c r="BC128">
+        <v>2.4</v>
+      </c>
+      <c r="BD128">
+        <v>3.35</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>5</v>
+      </c>
+      <c r="BG128">
+        <v>6</v>
+      </c>
+      <c r="BH128">
+        <v>4</v>
+      </c>
+      <c r="BI128">
+        <v>7</v>
+      </c>
+      <c r="BJ128">
+        <v>9</v>
+      </c>
+      <c r="BK128">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -25405,13 +25405,13 @@
         <v>86</v>
       </c>
       <c r="Q128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R128">
         <v>4</v>
       </c>
       <c r="S128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T128">
         <v>2.75</v>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1092,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT4">
         <v>1.38</v>
@@ -2954,7 +2954,7 @@
         <v>1.71</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT22">
         <v>1.13</v>
@@ -6201,7 +6201,7 @@
         <v>2.57</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU27">
         <v>3.11</v>
@@ -7344,7 +7344,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT33">
         <v>1.13</v>
@@ -8875,7 +8875,7 @@
         <v>1.29</v>
       </c>
       <c r="AT41">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU41">
         <v>1.36</v>
@@ -11358,7 +11358,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU54">
         <v>2.39</v>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT63">
         <v>1.14</v>
@@ -15369,7 +15369,7 @@
         <v>2.5</v>
       </c>
       <c r="AT75">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU75">
         <v>2.01</v>
@@ -18043,7 +18043,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU89">
         <v>1.73</v>
@@ -18613,7 +18613,7 @@
         <v>0.6</v>
       </c>
       <c r="AS92">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
         <v>0.57</v>
@@ -19377,7 +19377,7 @@
         <v>0.5</v>
       </c>
       <c r="AS96">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT96">
         <v>0.71</v>
@@ -24155,7 +24155,7 @@
         <v>2.25</v>
       </c>
       <c r="AT121">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AU121">
         <v>1.81</v>
@@ -25298,7 +25298,7 @@
         <v>2</v>
       </c>
       <c r="AS127">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT127">
         <v>1.75</v>
@@ -25544,6 +25544,197 @@
       </c>
       <c r="BK128">
         <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5182950</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45088.85416666666</v>
+      </c>
+      <c r="F129">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>67</v>
+      </c>
+      <c r="H129" t="s">
+        <v>65</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>85</v>
+      </c>
+      <c r="P129" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q129">
+        <v>12</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>14</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>2.3</v>
+      </c>
+      <c r="V129">
+        <v>5</v>
+      </c>
+      <c r="W129">
+        <v>1.31</v>
+      </c>
+      <c r="X129">
+        <v>3.1</v>
+      </c>
+      <c r="Y129">
+        <v>2.5</v>
+      </c>
+      <c r="Z129">
+        <v>1.48</v>
+      </c>
+      <c r="AA129">
+        <v>5.8</v>
+      </c>
+      <c r="AB129">
+        <v>1.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.6</v>
+      </c>
+      <c r="AD129">
+        <v>3.77</v>
+      </c>
+      <c r="AE129">
+        <v>4.52</v>
+      </c>
+      <c r="AF129">
+        <v>1.04</v>
+      </c>
+      <c r="AG129">
+        <v>10.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.22</v>
+      </c>
+      <c r="AI129">
+        <v>4</v>
+      </c>
+      <c r="AJ129">
+        <v>1.75</v>
+      </c>
+      <c r="AK129">
+        <v>1.92</v>
+      </c>
+      <c r="AL129">
+        <v>1.8</v>
+      </c>
+      <c r="AM129">
+        <v>1.96</v>
+      </c>
+      <c r="AN129">
+        <v>1.1</v>
+      </c>
+      <c r="AO129">
+        <v>1.18</v>
+      </c>
+      <c r="AP129">
+        <v>2.2</v>
+      </c>
+      <c r="AQ129">
+        <v>1.43</v>
+      </c>
+      <c r="AR129">
+        <v>0</v>
+      </c>
+      <c r="AS129">
+        <v>1.38</v>
+      </c>
+      <c r="AT129">
+        <v>0.13</v>
+      </c>
+      <c r="AU129">
+        <v>1.44</v>
+      </c>
+      <c r="AV129">
+        <v>0.96</v>
+      </c>
+      <c r="AW129">
+        <v>2.4</v>
+      </c>
+      <c r="AX129">
+        <v>1.64</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>2.67</v>
+      </c>
+      <c r="BA129">
+        <v>1.38</v>
+      </c>
+      <c r="BB129">
+        <v>1.67</v>
+      </c>
+      <c r="BC129">
+        <v>2</v>
+      </c>
+      <c r="BD129">
+        <v>2.8</v>
+      </c>
+      <c r="BE129">
+        <v>3.73</v>
+      </c>
+      <c r="BF129">
+        <v>4</v>
+      </c>
+      <c r="BG129">
+        <v>6</v>
+      </c>
+      <c r="BH129">
+        <v>5</v>
+      </c>
+      <c r="BI129">
+        <v>10</v>
+      </c>
+      <c r="BJ129">
+        <v>9</v>
+      </c>
+      <c r="BK129">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,24 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['29', '39']</t>
+  </si>
+  <si>
+    <t>['11', '20', '29', '43', '61', '78']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['74', '85']</t>
+  </si>
+  <si>
+    <t>['32', '42', '89']</t>
+  </si>
+  <si>
+    <t>['28', '56', '60']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -731,6 +749,18 @@
   </si>
   <si>
     <t>['35', '43']</t>
+  </si>
+  <si>
+    <t>['7', '67', '81']</t>
+  </si>
+  <si>
+    <t>['67', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['2', '56']</t>
+  </si>
+  <si>
+    <t>['44', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1366,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1527,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1909,7 +1939,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2291,7 +2321,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2482,7 +2512,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2951,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT10">
         <v>0.13</v>
@@ -3055,7 +3085,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3142,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3333,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT12">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3437,7 +3467,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3524,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3718,7 +3748,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3819,7 +3849,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3906,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4010,7 +4040,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4097,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4288,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT17">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4392,7 +4422,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4583,7 +4613,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4774,7 +4804,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5055,7 +5085,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU21">
         <v>1.88</v>
@@ -5347,7 +5377,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5729,7 +5759,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5819,7 +5849,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -6010,7 +6040,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>1.77</v>
@@ -6111,7 +6141,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6198,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT27">
         <v>0.13</v>
@@ -6389,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>0.95</v>
@@ -6493,7 +6523,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6580,10 +6610,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.67</v>
@@ -6771,10 +6801,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU30">
         <v>2.94</v>
@@ -6962,10 +6992,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT31">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU31">
         <v>2.79</v>
@@ -7066,7 +7096,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7153,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
         <v>0.25</v>
@@ -7257,7 +7287,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7448,7 +7478,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7535,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT34">
         <v>1.38</v>
@@ -7639,7 +7669,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7729,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU35">
         <v>2.06</v>
@@ -8021,7 +8051,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8108,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT37">
         <v>1.38</v>
@@ -8302,7 +8332,7 @@
         <v>2.5</v>
       </c>
       <c r="AT38">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8403,7 +8433,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8872,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
         <v>0.13</v>
@@ -8976,7 +9006,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9066,7 +9096,7 @@
         <v>2.5</v>
       </c>
       <c r="AT42">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9167,7 +9197,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9257,7 +9287,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU43">
         <v>2.22</v>
@@ -9448,7 +9478,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU44">
         <v>1.77</v>
@@ -9549,7 +9579,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9636,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT45">
         <v>1.75</v>
@@ -9827,10 +9857,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>2.44</v>
@@ -10018,7 +10048,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT47">
         <v>0.25</v>
@@ -10122,7 +10152,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10209,10 +10239,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>2.61</v>
@@ -10313,7 +10343,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10403,7 +10433,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU49">
         <v>1.76</v>
@@ -10591,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT50">
         <v>1.13</v>
@@ -10695,7 +10725,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10782,7 +10812,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT51">
         <v>1.38</v>
@@ -10886,7 +10916,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11164,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
         <v>1.38</v>
@@ -11268,7 +11298,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11355,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
         <v>0.13</v>
@@ -11459,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11549,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU55">
         <v>1.69</v>
@@ -11650,7 +11680,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11737,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT56">
         <v>1.38</v>
@@ -11841,7 +11871,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11931,7 +11961,7 @@
         <v>2.5</v>
       </c>
       <c r="AT57">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12119,7 +12149,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT58">
         <v>0.25</v>
@@ -12223,7 +12253,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12313,7 +12343,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU59">
         <v>1.86</v>
@@ -12414,7 +12444,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12501,7 +12531,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT60">
         <v>1.75</v>
@@ -12605,7 +12635,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12695,7 +12725,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -12987,7 +13017,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13077,7 +13107,7 @@
         <v>1.38</v>
       </c>
       <c r="AT63">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13178,7 +13208,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13265,7 +13295,7 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13369,7 +13399,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13459,7 +13489,7 @@
         <v>1.38</v>
       </c>
       <c r="AT65">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.94</v>
@@ -13560,7 +13590,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13647,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
         <v>1.13</v>
@@ -13841,7 +13871,7 @@
         <v>1.88</v>
       </c>
       <c r="AT67">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU67">
         <v>1.53</v>
@@ -13942,7 +13972,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14029,7 +14059,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT68">
         <v>1.38</v>
@@ -14133,7 +14163,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14223,7 +14253,7 @@
         <v>2.25</v>
       </c>
       <c r="AT69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14324,7 +14354,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14411,7 +14441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT70">
         <v>1.13</v>
@@ -14515,7 +14545,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14602,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
         <v>1.38</v>
@@ -14706,7 +14736,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14796,7 +14826,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU72">
         <v>1.82</v>
@@ -14987,7 +15017,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.68</v>
@@ -15178,7 +15208,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU74">
         <v>1.87</v>
@@ -15279,7 +15309,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15470,7 +15500,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15557,7 +15587,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT76">
         <v>1.38</v>
@@ -15661,7 +15691,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15939,7 +15969,7 @@
         <v>0.6</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT78">
         <v>1.13</v>
@@ -16043,7 +16073,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16133,7 +16163,7 @@
         <v>1.38</v>
       </c>
       <c r="AT79">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU79">
         <v>1.86</v>
@@ -16324,7 +16354,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU80">
         <v>1.75</v>
@@ -16512,10 +16542,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -16616,7 +16646,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16703,7 +16733,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16894,7 +16924,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -16998,7 +17028,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17088,7 +17118,7 @@
         <v>1.88</v>
       </c>
       <c r="AT84">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17189,7 +17219,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17276,10 +17306,10 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU85">
         <v>2.21</v>
@@ -17380,7 +17410,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17571,7 +17601,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18144,7 +18174,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18234,7 +18264,7 @@
         <v>2.5</v>
       </c>
       <c r="AT90">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.92</v>
@@ -18422,7 +18452,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT91">
         <v>1.38</v>
@@ -18526,7 +18556,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18616,7 +18646,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU92">
         <v>1.69</v>
@@ -18804,7 +18834,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT93">
         <v>1.38</v>
@@ -18995,7 +19025,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT94">
         <v>1.75</v>
@@ -19189,7 +19219,7 @@
         <v>2.5</v>
       </c>
       <c r="AT95">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -19290,7 +19320,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19380,7 +19410,7 @@
         <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU96">
         <v>1.58</v>
@@ -19568,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>1.13</v>
@@ -19759,10 +19789,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT98">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU98">
         <v>2.32</v>
@@ -19863,7 +19893,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19950,10 +19980,10 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU99">
         <v>1.77</v>
@@ -20141,10 +20171,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU100">
         <v>1.24</v>
@@ -20335,7 +20365,7 @@
         <v>1.88</v>
       </c>
       <c r="AT101">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20523,7 +20553,7 @@
         <v>1.17</v>
       </c>
       <c r="AS102">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20627,7 +20657,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20717,7 +20747,7 @@
         <v>2.25</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -20905,10 +20935,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT104">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>2.15</v>
@@ -21200,7 +21230,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21391,7 +21421,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21582,7 +21612,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21863,7 +21893,7 @@
         <v>1.38</v>
       </c>
       <c r="AT109">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1.83</v>
@@ -21964,7 +21994,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22155,7 +22185,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22242,7 +22272,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT111">
         <v>1.13</v>
@@ -22346,7 +22376,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22433,7 +22463,7 @@
         <v>1.29</v>
       </c>
       <c r="AS112">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT112">
         <v>1.13</v>
@@ -22537,7 +22567,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22627,7 +22657,7 @@
         <v>1.88</v>
       </c>
       <c r="AT113">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU113">
         <v>1.61</v>
@@ -22815,10 +22845,10 @@
         <v>1.17</v>
       </c>
       <c r="AS114">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>1.29</v>
@@ -22919,7 +22949,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23006,10 +23036,10 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU115">
         <v>1.56</v>
@@ -23197,10 +23227,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT116">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU116">
         <v>2.5</v>
@@ -23388,10 +23418,10 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT117">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU117">
         <v>1.57</v>
@@ -23579,10 +23609,10 @@
         <v>1.17</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -23770,10 +23800,10 @@
         <v>2.17</v>
       </c>
       <c r="AS119">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT119">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU119">
         <v>2.4</v>
@@ -23874,7 +23904,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23961,7 +23991,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT120">
         <v>1.75</v>
@@ -24256,7 +24286,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -25593,7 +25623,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q129">
         <v>12</v>
@@ -25735,6 +25765,1534 @@
       </c>
       <c r="BK129">
         <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5182968</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45100.66666666666</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>177</v>
+      </c>
+      <c r="P130" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130">
+        <v>7</v>
+      </c>
+      <c r="S130">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>3.42</v>
+      </c>
+      <c r="U130">
+        <v>2.21</v>
+      </c>
+      <c r="V130">
+        <v>2.86</v>
+      </c>
+      <c r="W130">
+        <v>1.31</v>
+      </c>
+      <c r="X130">
+        <v>3.1</v>
+      </c>
+      <c r="Y130">
+        <v>2.44</v>
+      </c>
+      <c r="Z130">
+        <v>1.49</v>
+      </c>
+      <c r="AA130">
+        <v>5.8</v>
+      </c>
+      <c r="AB130">
+        <v>1.1</v>
+      </c>
+      <c r="AC130">
+        <v>2.85</v>
+      </c>
+      <c r="AD130">
+        <v>3.45</v>
+      </c>
+      <c r="AE130">
+        <v>2.3</v>
+      </c>
+      <c r="AF130">
+        <v>1</v>
+      </c>
+      <c r="AG130">
+        <v>14</v>
+      </c>
+      <c r="AH130">
+        <v>1.21</v>
+      </c>
+      <c r="AI130">
+        <v>3.8</v>
+      </c>
+      <c r="AJ130">
+        <v>1.74</v>
+      </c>
+      <c r="AK130">
+        <v>2</v>
+      </c>
+      <c r="AL130">
+        <v>1.59</v>
+      </c>
+      <c r="AM130">
+        <v>2.21</v>
+      </c>
+      <c r="AN130">
+        <v>1.62</v>
+      </c>
+      <c r="AO130">
+        <v>1.28</v>
+      </c>
+      <c r="AP130">
+        <v>1.4</v>
+      </c>
+      <c r="AQ130">
+        <v>2</v>
+      </c>
+      <c r="AR130">
+        <v>0.71</v>
+      </c>
+      <c r="AS130">
+        <v>1.75</v>
+      </c>
+      <c r="AT130">
+        <v>1</v>
+      </c>
+      <c r="AU130">
+        <v>1.75</v>
+      </c>
+      <c r="AV130">
+        <v>1.77</v>
+      </c>
+      <c r="AW130">
+        <v>3.52</v>
+      </c>
+      <c r="AX130">
+        <v>2.27</v>
+      </c>
+      <c r="AY130">
+        <v>9</v>
+      </c>
+      <c r="AZ130">
+        <v>1.84</v>
+      </c>
+      <c r="BA130">
+        <v>1.21</v>
+      </c>
+      <c r="BB130">
+        <v>1.41</v>
+      </c>
+      <c r="BC130">
+        <v>1.73</v>
+      </c>
+      <c r="BD130">
+        <v>2.17</v>
+      </c>
+      <c r="BE130">
+        <v>2.91</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>7</v>
+      </c>
+      <c r="BH130">
+        <v>2</v>
+      </c>
+      <c r="BI130">
+        <v>9</v>
+      </c>
+      <c r="BJ130">
+        <v>5</v>
+      </c>
+      <c r="BK130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5182975</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45100.83333333334</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>80</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>86</v>
+      </c>
+      <c r="P131" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>10</v>
+      </c>
+      <c r="T131">
+        <v>2.1</v>
+      </c>
+      <c r="U131">
+        <v>2.38</v>
+      </c>
+      <c r="V131">
+        <v>5.5</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>3.25</v>
+      </c>
+      <c r="Y131">
+        <v>2.5</v>
+      </c>
+      <c r="Z131">
+        <v>1.5</v>
+      </c>
+      <c r="AA131">
+        <v>6</v>
+      </c>
+      <c r="AB131">
+        <v>1.13</v>
+      </c>
+      <c r="AC131">
+        <v>1.48</v>
+      </c>
+      <c r="AD131">
+        <v>4.3</v>
+      </c>
+      <c r="AE131">
+        <v>5.6</v>
+      </c>
+      <c r="AF131">
+        <v>1.04</v>
+      </c>
+      <c r="AG131">
+        <v>16</v>
+      </c>
+      <c r="AH131">
+        <v>1.21</v>
+      </c>
+      <c r="AI131">
+        <v>4.05</v>
+      </c>
+      <c r="AJ131">
+        <v>1.61</v>
+      </c>
+      <c r="AK131">
+        <v>2.23</v>
+      </c>
+      <c r="AL131">
+        <v>1.73</v>
+      </c>
+      <c r="AM131">
+        <v>2</v>
+      </c>
+      <c r="AN131">
+        <v>1.15</v>
+      </c>
+      <c r="AO131">
+        <v>1.21</v>
+      </c>
+      <c r="AP131">
+        <v>2.4</v>
+      </c>
+      <c r="AQ131">
+        <v>1.29</v>
+      </c>
+      <c r="AR131">
+        <v>0.86</v>
+      </c>
+      <c r="AS131">
+        <v>1.25</v>
+      </c>
+      <c r="AT131">
+        <v>0.88</v>
+      </c>
+      <c r="AU131">
+        <v>2.39</v>
+      </c>
+      <c r="AV131">
+        <v>1.28</v>
+      </c>
+      <c r="AW131">
+        <v>3.67</v>
+      </c>
+      <c r="AX131">
+        <v>1.23</v>
+      </c>
+      <c r="AY131">
+        <v>10</v>
+      </c>
+      <c r="AZ131">
+        <v>5.15</v>
+      </c>
+      <c r="BA131">
+        <v>1.3</v>
+      </c>
+      <c r="BB131">
+        <v>1.58</v>
+      </c>
+      <c r="BC131">
+        <v>2</v>
+      </c>
+      <c r="BD131">
+        <v>2.7</v>
+      </c>
+      <c r="BE131">
+        <v>3.75</v>
+      </c>
+      <c r="BF131">
+        <v>6</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>12</v>
+      </c>
+      <c r="BI131">
+        <v>5</v>
+      </c>
+      <c r="BJ131">
+        <v>18</v>
+      </c>
+      <c r="BK131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5182971</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45101.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>66</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>6</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+      <c r="N132">
+        <v>9</v>
+      </c>
+      <c r="O132" t="s">
+        <v>178</v>
+      </c>
+      <c r="P132" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q132">
+        <v>4</v>
+      </c>
+      <c r="R132">
+        <v>9</v>
+      </c>
+      <c r="S132">
+        <v>13</v>
+      </c>
+      <c r="T132">
+        <v>2.63</v>
+      </c>
+      <c r="U132">
+        <v>2.3</v>
+      </c>
+      <c r="V132">
+        <v>3.6</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>3.25</v>
+      </c>
+      <c r="Y132">
+        <v>2.5</v>
+      </c>
+      <c r="Z132">
+        <v>1.5</v>
+      </c>
+      <c r="AA132">
+        <v>6.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.11</v>
+      </c>
+      <c r="AC132">
+        <v>2.3</v>
+      </c>
+      <c r="AD132">
+        <v>3.5</v>
+      </c>
+      <c r="AE132">
+        <v>2.88</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>13</v>
+      </c>
+      <c r="AH132">
+        <v>1.22</v>
+      </c>
+      <c r="AI132">
+        <v>3.8</v>
+      </c>
+      <c r="AJ132">
+        <v>1.65</v>
+      </c>
+      <c r="AK132">
+        <v>2.1</v>
+      </c>
+      <c r="AL132">
+        <v>1.62</v>
+      </c>
+      <c r="AM132">
+        <v>2.2</v>
+      </c>
+      <c r="AN132">
+        <v>1.4</v>
+      </c>
+      <c r="AO132">
+        <v>1.25</v>
+      </c>
+      <c r="AP132">
+        <v>1.66</v>
+      </c>
+      <c r="AQ132">
+        <v>2.57</v>
+      </c>
+      <c r="AR132">
+        <v>1.86</v>
+      </c>
+      <c r="AS132">
+        <v>2.63</v>
+      </c>
+      <c r="AT132">
+        <v>1.63</v>
+      </c>
+      <c r="AU132">
+        <v>2.61</v>
+      </c>
+      <c r="AV132">
+        <v>1.36</v>
+      </c>
+      <c r="AW132">
+        <v>3.97</v>
+      </c>
+      <c r="AX132">
+        <v>1.75</v>
+      </c>
+      <c r="AY132">
+        <v>8</v>
+      </c>
+      <c r="AZ132">
+        <v>2.44</v>
+      </c>
+      <c r="BA132">
+        <v>1.28</v>
+      </c>
+      <c r="BB132">
+        <v>1.52</v>
+      </c>
+      <c r="BC132">
+        <v>2</v>
+      </c>
+      <c r="BD132">
+        <v>2.55</v>
+      </c>
+      <c r="BE132">
+        <v>3.5</v>
+      </c>
+      <c r="BF132">
+        <v>11</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>6</v>
+      </c>
+      <c r="BI132">
+        <v>4</v>
+      </c>
+      <c r="BJ132">
+        <v>17</v>
+      </c>
+      <c r="BK132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5182972</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45101.875</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>72</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>9</v>
+      </c>
+      <c r="T133">
+        <v>2.3</v>
+      </c>
+      <c r="U133">
+        <v>2.25</v>
+      </c>
+      <c r="V133">
+        <v>5</v>
+      </c>
+      <c r="W133">
+        <v>1.4</v>
+      </c>
+      <c r="X133">
+        <v>2.75</v>
+      </c>
+      <c r="Y133">
+        <v>2.75</v>
+      </c>
+      <c r="Z133">
+        <v>1.4</v>
+      </c>
+      <c r="AA133">
+        <v>8</v>
+      </c>
+      <c r="AB133">
+        <v>1.08</v>
+      </c>
+      <c r="AC133">
+        <v>1.67</v>
+      </c>
+      <c r="AD133">
+        <v>3.75</v>
+      </c>
+      <c r="AE133">
+        <v>4.8</v>
+      </c>
+      <c r="AF133">
+        <v>1.05</v>
+      </c>
+      <c r="AG133">
+        <v>11</v>
+      </c>
+      <c r="AH133">
+        <v>1.27</v>
+      </c>
+      <c r="AI133">
+        <v>3.4</v>
+      </c>
+      <c r="AJ133">
+        <v>1.83</v>
+      </c>
+      <c r="AK133">
+        <v>1.87</v>
+      </c>
+      <c r="AL133">
+        <v>1.91</v>
+      </c>
+      <c r="AM133">
+        <v>1.8</v>
+      </c>
+      <c r="AN133">
+        <v>1.2</v>
+      </c>
+      <c r="AO133">
+        <v>1.22</v>
+      </c>
+      <c r="AP133">
+        <v>2.1</v>
+      </c>
+      <c r="AQ133">
+        <v>1.14</v>
+      </c>
+      <c r="AR133">
+        <v>1.14</v>
+      </c>
+      <c r="AS133">
+        <v>1</v>
+      </c>
+      <c r="AT133">
+        <v>1.38</v>
+      </c>
+      <c r="AU133">
+        <v>1.63</v>
+      </c>
+      <c r="AV133">
+        <v>1.41</v>
+      </c>
+      <c r="AW133">
+        <v>3.04</v>
+      </c>
+      <c r="AX133">
+        <v>1.45</v>
+      </c>
+      <c r="AY133">
+        <v>8.5</v>
+      </c>
+      <c r="AZ133">
+        <v>3.33</v>
+      </c>
+      <c r="BA133">
+        <v>1.28</v>
+      </c>
+      <c r="BB133">
+        <v>1.52</v>
+      </c>
+      <c r="BC133">
+        <v>2</v>
+      </c>
+      <c r="BD133">
+        <v>2.55</v>
+      </c>
+      <c r="BE133">
+        <v>3.5</v>
+      </c>
+      <c r="BF133">
+        <v>5</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>12</v>
+      </c>
+      <c r="BI133">
+        <v>4</v>
+      </c>
+      <c r="BJ133">
+        <v>17</v>
+      </c>
+      <c r="BK133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5182969</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s">
+        <v>70</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>180</v>
+      </c>
+      <c r="P134" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q134">
+        <v>11</v>
+      </c>
+      <c r="R134">
+        <v>5</v>
+      </c>
+      <c r="S134">
+        <v>16</v>
+      </c>
+      <c r="T134">
+        <v>1.62</v>
+      </c>
+      <c r="U134">
+        <v>2.88</v>
+      </c>
+      <c r="V134">
+        <v>9</v>
+      </c>
+      <c r="W134">
+        <v>1.25</v>
+      </c>
+      <c r="X134">
+        <v>3.75</v>
+      </c>
+      <c r="Y134">
+        <v>2.1</v>
+      </c>
+      <c r="Z134">
+        <v>1.67</v>
+      </c>
+      <c r="AA134">
+        <v>4.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.18</v>
+      </c>
+      <c r="AC134">
+        <v>1.2</v>
+      </c>
+      <c r="AD134">
+        <v>6.5</v>
+      </c>
+      <c r="AE134">
+        <v>11</v>
+      </c>
+      <c r="AF134">
+        <v>1.02</v>
+      </c>
+      <c r="AG134">
+        <v>19</v>
+      </c>
+      <c r="AH134">
+        <v>1.14</v>
+      </c>
+      <c r="AI134">
+        <v>5.5</v>
+      </c>
+      <c r="AJ134">
+        <v>1.4</v>
+      </c>
+      <c r="AK134">
+        <v>2.64</v>
+      </c>
+      <c r="AL134">
+        <v>2</v>
+      </c>
+      <c r="AM134">
+        <v>1.73</v>
+      </c>
+      <c r="AN134">
+        <v>1.06</v>
+      </c>
+      <c r="AO134">
+        <v>1.11</v>
+      </c>
+      <c r="AP134">
+        <v>4</v>
+      </c>
+      <c r="AQ134">
+        <v>1.71</v>
+      </c>
+      <c r="AR134">
+        <v>0.57</v>
+      </c>
+      <c r="AS134">
+        <v>1.88</v>
+      </c>
+      <c r="AT134">
+        <v>0.5</v>
+      </c>
+      <c r="AU134">
+        <v>2.36</v>
+      </c>
+      <c r="AV134">
+        <v>1.23</v>
+      </c>
+      <c r="AW134">
+        <v>3.59</v>
+      </c>
+      <c r="AX134">
+        <v>1.19</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>5.67</v>
+      </c>
+      <c r="BA134">
+        <v>1.26</v>
+      </c>
+      <c r="BB134">
+        <v>1.49</v>
+      </c>
+      <c r="BC134">
+        <v>1.9</v>
+      </c>
+      <c r="BD134">
+        <v>2.45</v>
+      </c>
+      <c r="BE134">
+        <v>3.35</v>
+      </c>
+      <c r="BF134">
+        <v>12</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>12</v>
+      </c>
+      <c r="BI134">
+        <v>5</v>
+      </c>
+      <c r="BJ134">
+        <v>24</v>
+      </c>
+      <c r="BK134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5182974</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45102.77083333334</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>71</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>181</v>
+      </c>
+      <c r="P135" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>1.91</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>7</v>
+      </c>
+      <c r="W135">
+        <v>1.29</v>
+      </c>
+      <c r="X135">
+        <v>3.25</v>
+      </c>
+      <c r="Y135">
+        <v>2.5</v>
+      </c>
+      <c r="Z135">
+        <v>1.5</v>
+      </c>
+      <c r="AA135">
+        <v>5.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.12</v>
+      </c>
+      <c r="AC135">
+        <v>1.2</v>
+      </c>
+      <c r="AD135">
+        <v>6</v>
+      </c>
+      <c r="AE135">
+        <v>11</v>
+      </c>
+      <c r="AF135">
+        <v>1.03</v>
+      </c>
+      <c r="AG135">
+        <v>15</v>
+      </c>
+      <c r="AH135">
+        <v>1.17</v>
+      </c>
+      <c r="AI135">
+        <v>5</v>
+      </c>
+      <c r="AJ135">
+        <v>1.89</v>
+      </c>
+      <c r="AK135">
+        <v>1.89</v>
+      </c>
+      <c r="AL135">
+        <v>1.75</v>
+      </c>
+      <c r="AM135">
+        <v>2.03</v>
+      </c>
+      <c r="AN135">
+        <v>1.05</v>
+      </c>
+      <c r="AO135">
+        <v>1.14</v>
+      </c>
+      <c r="AP135">
+        <v>2.8</v>
+      </c>
+      <c r="AQ135">
+        <v>2.29</v>
+      </c>
+      <c r="AR135">
+        <v>0.71</v>
+      </c>
+      <c r="AS135">
+        <v>2.38</v>
+      </c>
+      <c r="AT135">
+        <v>0.63</v>
+      </c>
+      <c r="AU135">
+        <v>2.17</v>
+      </c>
+      <c r="AV135">
+        <v>1</v>
+      </c>
+      <c r="AW135">
+        <v>3.17</v>
+      </c>
+      <c r="AX135">
+        <v>1.26</v>
+      </c>
+      <c r="AY135">
+        <v>10</v>
+      </c>
+      <c r="AZ135">
+        <v>4.86</v>
+      </c>
+      <c r="BA135">
+        <v>1.35</v>
+      </c>
+      <c r="BB135">
+        <v>1.64</v>
+      </c>
+      <c r="BC135">
+        <v>2.1</v>
+      </c>
+      <c r="BD135">
+        <v>2.88</v>
+      </c>
+      <c r="BE135">
+        <v>4</v>
+      </c>
+      <c r="BF135">
+        <v>8</v>
+      </c>
+      <c r="BG135">
+        <v>5</v>
+      </c>
+      <c r="BH135">
+        <v>13</v>
+      </c>
+      <c r="BI135">
+        <v>3</v>
+      </c>
+      <c r="BJ135">
+        <v>21</v>
+      </c>
+      <c r="BK135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5182970</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45102.85416666666</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s">
+        <v>67</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>182</v>
+      </c>
+      <c r="P136" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q136">
+        <v>4</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>6</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>2.05</v>
+      </c>
+      <c r="V136">
+        <v>5</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>2.5</v>
+      </c>
+      <c r="Y136">
+        <v>3.4</v>
+      </c>
+      <c r="Z136">
+        <v>1.3</v>
+      </c>
+      <c r="AA136">
+        <v>10</v>
+      </c>
+      <c r="AB136">
+        <v>1.06</v>
+      </c>
+      <c r="AC136">
+        <v>1.7</v>
+      </c>
+      <c r="AD136">
+        <v>3.4</v>
+      </c>
+      <c r="AE136">
+        <v>4.6</v>
+      </c>
+      <c r="AF136">
+        <v>1.08</v>
+      </c>
+      <c r="AG136">
+        <v>8</v>
+      </c>
+      <c r="AH136">
+        <v>1.4</v>
+      </c>
+      <c r="AI136">
+        <v>2.75</v>
+      </c>
+      <c r="AJ136">
+        <v>2.1</v>
+      </c>
+      <c r="AK136">
+        <v>1.62</v>
+      </c>
+      <c r="AL136">
+        <v>2.1</v>
+      </c>
+      <c r="AM136">
+        <v>1.81</v>
+      </c>
+      <c r="AN136">
+        <v>1.18</v>
+      </c>
+      <c r="AO136">
+        <v>1.25</v>
+      </c>
+      <c r="AP136">
+        <v>1.91</v>
+      </c>
+      <c r="AQ136">
+        <v>1.29</v>
+      </c>
+      <c r="AR136">
+        <v>1</v>
+      </c>
+      <c r="AS136">
+        <v>1.5</v>
+      </c>
+      <c r="AT136">
+        <v>0.88</v>
+      </c>
+      <c r="AU136">
+        <v>1.37</v>
+      </c>
+      <c r="AV136">
+        <v>1.06</v>
+      </c>
+      <c r="AW136">
+        <v>2.43</v>
+      </c>
+      <c r="AX136">
+        <v>1.59</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>2.9</v>
+      </c>
+      <c r="BA136">
+        <v>1.38</v>
+      </c>
+      <c r="BB136">
+        <v>1.67</v>
+      </c>
+      <c r="BC136">
+        <v>2.15</v>
+      </c>
+      <c r="BD136">
+        <v>2.8</v>
+      </c>
+      <c r="BE136">
+        <v>3.95</v>
+      </c>
+      <c r="BF136">
+        <v>10</v>
+      </c>
+      <c r="BG136">
+        <v>3</v>
+      </c>
+      <c r="BH136">
+        <v>8</v>
+      </c>
+      <c r="BI136">
+        <v>2</v>
+      </c>
+      <c r="BJ136">
+        <v>18</v>
+      </c>
+      <c r="BK136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5182973</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45103.83333333334</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>136</v>
+      </c>
+      <c r="P137" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>5</v>
+      </c>
+      <c r="T137">
+        <v>2.4</v>
+      </c>
+      <c r="U137">
+        <v>2.2</v>
+      </c>
+      <c r="V137">
+        <v>4.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>2.75</v>
+      </c>
+      <c r="Y137">
+        <v>2.75</v>
+      </c>
+      <c r="Z137">
+        <v>1.4</v>
+      </c>
+      <c r="AA137">
+        <v>8</v>
+      </c>
+      <c r="AB137">
+        <v>1.08</v>
+      </c>
+      <c r="AC137">
+        <v>1.73</v>
+      </c>
+      <c r="AD137">
+        <v>3.5</v>
+      </c>
+      <c r="AE137">
+        <v>4.2</v>
+      </c>
+      <c r="AF137">
+        <v>1.05</v>
+      </c>
+      <c r="AG137">
+        <v>11</v>
+      </c>
+      <c r="AH137">
+        <v>1.29</v>
+      </c>
+      <c r="AI137">
+        <v>3.5</v>
+      </c>
+      <c r="AJ137">
+        <v>1.82</v>
+      </c>
+      <c r="AK137">
+        <v>1.82</v>
+      </c>
+      <c r="AL137">
+        <v>1.83</v>
+      </c>
+      <c r="AM137">
+        <v>1.83</v>
+      </c>
+      <c r="AN137">
+        <v>1.2</v>
+      </c>
+      <c r="AO137">
+        <v>1.25</v>
+      </c>
+      <c r="AP137">
+        <v>1.91</v>
+      </c>
+      <c r="AQ137">
+        <v>1.29</v>
+      </c>
+      <c r="AR137">
+        <v>0.57</v>
+      </c>
+      <c r="AS137">
+        <v>1.5</v>
+      </c>
+      <c r="AT137">
+        <v>0.5</v>
+      </c>
+      <c r="AU137">
+        <v>1.63</v>
+      </c>
+      <c r="AV137">
+        <v>0.96</v>
+      </c>
+      <c r="AW137">
+        <v>2.59</v>
+      </c>
+      <c r="AX137">
+        <v>1.64</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>2.77</v>
+      </c>
+      <c r="BA137">
+        <v>1.28</v>
+      </c>
+      <c r="BB137">
+        <v>1.52</v>
+      </c>
+      <c r="BC137">
+        <v>2</v>
+      </c>
+      <c r="BD137">
+        <v>2.55</v>
+      </c>
+      <c r="BE137">
+        <v>3.5</v>
+      </c>
+      <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>5</v>
+      </c>
+      <c r="BI137">
+        <v>11</v>
+      </c>
+      <c r="BJ137">
+        <v>10</v>
+      </c>
+      <c r="BK137">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,30 @@
     <t>['28', '56', '60']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['64', '78']</t>
+  </si>
+  <si>
+    <t>['18', '48', '73']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['28', '79', '88']</t>
+  </si>
+  <si>
+    <t>['55', '61', '68', '90+5']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['41', '66', '86']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -676,9 +700,6 @@
     <t>['11', '19']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -761,6 +782,15 @@
   </si>
   <si>
     <t>['44', '90+2']</t>
+  </si>
+  <si>
+    <t>['76', '79']</t>
+  </si>
+  <si>
+    <t>['28', '48', '72']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1396,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1557,7 +1587,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1939,7 +1969,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2321,7 +2351,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2512,7 +2542,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2981,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3085,7 +3115,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3172,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3363,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3467,7 +3497,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3554,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT13">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3748,7 +3778,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3849,7 +3879,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3936,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4040,7 +4070,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4127,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4318,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4422,7 +4452,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4613,7 +4643,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4804,7 +4834,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5377,7 +5407,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5759,7 +5789,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5849,7 +5879,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -6040,7 +6070,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU26">
         <v>1.77</v>
@@ -6141,7 +6171,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6228,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT27">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU27">
         <v>3.11</v>
@@ -6419,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU28">
         <v>0.95</v>
@@ -6523,7 +6553,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6610,10 +6640,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU29">
         <v>1.67</v>
@@ -6801,10 +6831,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU30">
         <v>2.94</v>
@@ -6992,10 +7022,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT31">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU31">
         <v>2.79</v>
@@ -7096,7 +7126,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7183,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
         <v>0.25</v>
@@ -7287,7 +7317,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7478,7 +7508,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7565,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT34">
         <v>1.38</v>
@@ -7669,7 +7699,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7759,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU35">
         <v>2.06</v>
@@ -8051,7 +8081,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8138,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>1.38</v>
@@ -8433,7 +8463,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8902,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU41">
         <v>1.36</v>
@@ -9006,7 +9036,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9096,7 +9126,7 @@
         <v>2.5</v>
       </c>
       <c r="AT42">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9197,7 +9227,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9287,7 +9317,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU43">
         <v>2.22</v>
@@ -9478,7 +9508,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU44">
         <v>1.77</v>
@@ -9579,7 +9609,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9666,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT45">
         <v>1.75</v>
@@ -9857,10 +9887,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU46">
         <v>2.44</v>
@@ -10048,7 +10078,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT47">
         <v>0.25</v>
@@ -10152,7 +10182,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10239,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU48">
         <v>2.61</v>
@@ -10343,7 +10373,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10621,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT50">
         <v>1.13</v>
@@ -10725,7 +10755,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10812,7 +10842,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>1.38</v>
@@ -10916,7 +10946,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11194,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
         <v>1.38</v>
@@ -11298,7 +11328,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11385,10 +11415,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU54">
         <v>2.39</v>
@@ -11489,7 +11519,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11579,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU55">
         <v>1.69</v>
@@ -11680,7 +11710,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11767,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT56">
         <v>1.38</v>
@@ -11871,7 +11901,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11961,7 +11991,7 @@
         <v>2.5</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12149,7 +12179,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT58">
         <v>0.25</v>
@@ -12253,7 +12283,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12343,7 +12373,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU59">
         <v>1.86</v>
@@ -12444,7 +12474,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12531,7 +12561,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT60">
         <v>1.75</v>
@@ -12635,7 +12665,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12725,7 +12755,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13017,7 +13047,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13107,7 +13137,7 @@
         <v>1.38</v>
       </c>
       <c r="AT63">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13208,7 +13238,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13295,7 +13325,7 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13399,7 +13429,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13489,7 +13519,7 @@
         <v>1.38</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU65">
         <v>1.94</v>
@@ -13590,7 +13620,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13677,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT66">
         <v>1.13</v>
@@ -13972,7 +14002,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14059,7 +14089,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT68">
         <v>1.38</v>
@@ -14163,7 +14193,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14253,7 +14283,7 @@
         <v>2.25</v>
       </c>
       <c r="AT69">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14354,7 +14384,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14441,7 +14471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT70">
         <v>1.13</v>
@@ -14545,7 +14575,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14632,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT71">
         <v>1.38</v>
@@ -14736,7 +14766,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14826,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU72">
         <v>1.82</v>
@@ -15017,7 +15047,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU73">
         <v>1.68</v>
@@ -15208,7 +15238,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU74">
         <v>1.87</v>
@@ -15309,7 +15339,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15399,7 +15429,7 @@
         <v>2.5</v>
       </c>
       <c r="AT75">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU75">
         <v>2.01</v>
@@ -15500,7 +15530,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15587,7 +15617,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT76">
         <v>1.38</v>
@@ -15691,7 +15721,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15969,7 +15999,7 @@
         <v>0.6</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT78">
         <v>1.13</v>
@@ -16073,7 +16103,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16163,7 +16193,7 @@
         <v>1.38</v>
       </c>
       <c r="AT79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU79">
         <v>1.86</v>
@@ -16354,7 +16384,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU80">
         <v>1.75</v>
@@ -16542,10 +16572,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -16646,7 +16676,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16733,7 +16763,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16924,7 +16954,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -17028,7 +17058,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17118,7 +17148,7 @@
         <v>1.88</v>
       </c>
       <c r="AT84">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17219,7 +17249,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17306,7 +17336,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.88</v>
@@ -17410,7 +17440,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17601,7 +17631,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18073,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU89">
         <v>1.73</v>
@@ -18174,7 +18204,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18264,7 +18294,7 @@
         <v>2.5</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU90">
         <v>1.92</v>
@@ -18452,7 +18482,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
         <v>1.38</v>
@@ -18556,7 +18586,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18646,7 +18676,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU92">
         <v>1.69</v>
@@ -18834,7 +18864,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT93">
         <v>1.38</v>
@@ -19025,7 +19055,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT94">
         <v>1.75</v>
@@ -19219,7 +19249,7 @@
         <v>2.5</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -19320,7 +19350,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19410,7 +19440,7 @@
         <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU96">
         <v>1.58</v>
@@ -19598,7 +19628,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT97">
         <v>1.13</v>
@@ -19789,7 +19819,7 @@
         <v>0.6</v>
       </c>
       <c r="AS98">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT98">
         <v>0.88</v>
@@ -19893,7 +19923,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19980,10 +20010,10 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT99">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU99">
         <v>1.77</v>
@@ -20171,10 +20201,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU100">
         <v>1.24</v>
@@ -20365,7 +20395,7 @@
         <v>1.88</v>
       </c>
       <c r="AT101">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20553,7 +20583,7 @@
         <v>1.17</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20657,7 +20687,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20747,7 +20777,7 @@
         <v>2.25</v>
       </c>
       <c r="AT103">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -20935,10 +20965,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU104">
         <v>2.15</v>
@@ -21230,7 +21260,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21421,7 +21451,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21612,7 +21642,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21893,7 +21923,7 @@
         <v>1.38</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU109">
         <v>1.83</v>
@@ -21994,7 +22024,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22185,7 +22215,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22272,7 +22302,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT111">
         <v>1.13</v>
@@ -22376,7 +22406,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22463,7 +22493,7 @@
         <v>1.29</v>
       </c>
       <c r="AS112">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT112">
         <v>1.13</v>
@@ -22567,7 +22597,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22657,7 +22687,7 @@
         <v>1.88</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU113">
         <v>1.61</v>
@@ -22845,10 +22875,10 @@
         <v>1.17</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU114">
         <v>1.29</v>
@@ -22949,7 +22979,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23036,7 +23066,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT115">
         <v>0.88</v>
@@ -23227,10 +23257,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT116">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU116">
         <v>2.5</v>
@@ -23418,10 +23448,10 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT117">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU117">
         <v>1.57</v>
@@ -23609,10 +23639,10 @@
         <v>1.17</v>
       </c>
       <c r="AS118">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -23800,10 +23830,10 @@
         <v>2.17</v>
       </c>
       <c r="AS119">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT119">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU119">
         <v>2.4</v>
@@ -23904,7 +23934,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23991,7 +24021,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT120">
         <v>1.75</v>
@@ -24185,7 +24215,7 @@
         <v>2.25</v>
       </c>
       <c r="AT121">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU121">
         <v>1.81</v>
@@ -24286,7 +24316,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -25623,7 +25653,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>12</v>
@@ -25713,7 +25743,7 @@
         <v>1.38</v>
       </c>
       <c r="AT129">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU129">
         <v>1.44</v>
@@ -25814,7 +25844,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -25901,10 +25931,10 @@
         <v>0.71</v>
       </c>
       <c r="AS130">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT130">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU130">
         <v>1.75</v>
@@ -26092,7 +26122,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT131">
         <v>0.88</v>
@@ -26196,7 +26226,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26283,10 +26313,10 @@
         <v>1.86</v>
       </c>
       <c r="AS132">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT132">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU132">
         <v>2.61</v>
@@ -26387,7 +26417,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26474,10 +26504,10 @@
         <v>1.14</v>
       </c>
       <c r="AS133">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT133">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU133">
         <v>1.63</v>
@@ -26665,10 +26695,10 @@
         <v>0.57</v>
       </c>
       <c r="AS134">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT134">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU134">
         <v>2.36</v>
@@ -26856,10 +26886,10 @@
         <v>0.71</v>
       </c>
       <c r="AS135">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT135">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU135">
         <v>2.17</v>
@@ -26960,7 +26990,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27047,10 +27077,10 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT136">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU136">
         <v>1.37</v>
@@ -27238,10 +27268,10 @@
         <v>0.57</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT137">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU137">
         <v>1.63</v>
@@ -27293,6 +27323,1534 @@
       </c>
       <c r="BK137">
         <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5182976</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45114.875</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" t="s">
+        <v>71</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>183</v>
+      </c>
+      <c r="P138" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q138">
+        <v>11</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+      <c r="S138">
+        <v>17</v>
+      </c>
+      <c r="T138">
+        <v>2.4</v>
+      </c>
+      <c r="U138">
+        <v>2.25</v>
+      </c>
+      <c r="V138">
+        <v>4.75</v>
+      </c>
+      <c r="W138">
+        <v>1.38</v>
+      </c>
+      <c r="X138">
+        <v>2.8</v>
+      </c>
+      <c r="Y138">
+        <v>2.75</v>
+      </c>
+      <c r="Z138">
+        <v>1.39</v>
+      </c>
+      <c r="AA138">
+        <v>7</v>
+      </c>
+      <c r="AB138">
+        <v>1.08</v>
+      </c>
+      <c r="AC138">
+        <v>1.8</v>
+      </c>
+      <c r="AD138">
+        <v>3.6</v>
+      </c>
+      <c r="AE138">
+        <v>3.75</v>
+      </c>
+      <c r="AF138">
+        <v>1.04</v>
+      </c>
+      <c r="AG138">
+        <v>11.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.26</v>
+      </c>
+      <c r="AI138">
+        <v>3.6</v>
+      </c>
+      <c r="AJ138">
+        <v>1.82</v>
+      </c>
+      <c r="AK138">
+        <v>2</v>
+      </c>
+      <c r="AL138">
+        <v>1.77</v>
+      </c>
+      <c r="AM138">
+        <v>1.94</v>
+      </c>
+      <c r="AN138">
+        <v>1.22</v>
+      </c>
+      <c r="AO138">
+        <v>1.25</v>
+      </c>
+      <c r="AP138">
+        <v>1.98</v>
+      </c>
+      <c r="AQ138">
+        <v>1.25</v>
+      </c>
+      <c r="AR138">
+        <v>0.63</v>
+      </c>
+      <c r="AS138">
+        <v>1.44</v>
+      </c>
+      <c r="AT138">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU138">
+        <v>2.35</v>
+      </c>
+      <c r="AV138">
+        <v>0.99</v>
+      </c>
+      <c r="AW138">
+        <v>3.34</v>
+      </c>
+      <c r="AX138">
+        <v>1.45</v>
+      </c>
+      <c r="AY138">
+        <v>8.5</v>
+      </c>
+      <c r="AZ138">
+        <v>3.46</v>
+      </c>
+      <c r="BA138">
+        <v>1.32</v>
+      </c>
+      <c r="BB138">
+        <v>1.61</v>
+      </c>
+      <c r="BC138">
+        <v>2.07</v>
+      </c>
+      <c r="BD138">
+        <v>2.77</v>
+      </c>
+      <c r="BE138">
+        <v>3.85</v>
+      </c>
+      <c r="BF138">
+        <v>6</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>6</v>
+      </c>
+      <c r="BI138">
+        <v>7</v>
+      </c>
+      <c r="BJ138">
+        <v>12</v>
+      </c>
+      <c r="BK138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5182983</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139" t="s">
+        <v>65</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>184</v>
+      </c>
+      <c r="P139" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q139">
+        <v>5</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>2.38</v>
+      </c>
+      <c r="V139">
+        <v>4.5</v>
+      </c>
+      <c r="W139">
+        <v>1.28</v>
+      </c>
+      <c r="X139">
+        <v>3.3</v>
+      </c>
+      <c r="Y139">
+        <v>2.3</v>
+      </c>
+      <c r="Z139">
+        <v>1.55</v>
+      </c>
+      <c r="AA139">
+        <v>5.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.14</v>
+      </c>
+      <c r="AC139">
+        <v>1.54</v>
+      </c>
+      <c r="AD139">
+        <v>3.58</v>
+      </c>
+      <c r="AE139">
+        <v>4.76</v>
+      </c>
+      <c r="AF139">
+        <v>1.03</v>
+      </c>
+      <c r="AG139">
+        <v>11</v>
+      </c>
+      <c r="AH139">
+        <v>1.18</v>
+      </c>
+      <c r="AI139">
+        <v>4.3</v>
+      </c>
+      <c r="AJ139">
+        <v>1.59</v>
+      </c>
+      <c r="AK139">
+        <v>2.27</v>
+      </c>
+      <c r="AL139">
+        <v>1.6</v>
+      </c>
+      <c r="AM139">
+        <v>2.2</v>
+      </c>
+      <c r="AN139">
+        <v>1.13</v>
+      </c>
+      <c r="AO139">
+        <v>1.2</v>
+      </c>
+      <c r="AP139">
+        <v>2</v>
+      </c>
+      <c r="AQ139">
+        <v>1.75</v>
+      </c>
+      <c r="AR139">
+        <v>0.13</v>
+      </c>
+      <c r="AS139">
+        <v>1.89</v>
+      </c>
+      <c r="AT139">
+        <v>0.11</v>
+      </c>
+      <c r="AU139">
+        <v>1.63</v>
+      </c>
+      <c r="AV139">
+        <v>1.04</v>
+      </c>
+      <c r="AW139">
+        <v>2.67</v>
+      </c>
+      <c r="AX139">
+        <v>1.55</v>
+      </c>
+      <c r="AY139">
+        <v>8.5</v>
+      </c>
+      <c r="AZ139">
+        <v>2.91</v>
+      </c>
+      <c r="BA139">
+        <v>1.3</v>
+      </c>
+      <c r="BB139">
+        <v>1.55</v>
+      </c>
+      <c r="BC139">
+        <v>2</v>
+      </c>
+      <c r="BD139">
+        <v>2.63</v>
+      </c>
+      <c r="BE139">
+        <v>3.65</v>
+      </c>
+      <c r="BF139">
+        <v>7</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>12</v>
+      </c>
+      <c r="BI139">
+        <v>4</v>
+      </c>
+      <c r="BJ139">
+        <v>19</v>
+      </c>
+      <c r="BK139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5182977</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45115.77083333334</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" t="s">
+        <v>68</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>185</v>
+      </c>
+      <c r="P140" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q140">
+        <v>12</v>
+      </c>
+      <c r="R140">
+        <v>3</v>
+      </c>
+      <c r="S140">
+        <v>15</v>
+      </c>
+      <c r="T140">
+        <v>1.73</v>
+      </c>
+      <c r="U140">
+        <v>2.6</v>
+      </c>
+      <c r="V140">
+        <v>8</v>
+      </c>
+      <c r="W140">
+        <v>1.28</v>
+      </c>
+      <c r="X140">
+        <v>3.3</v>
+      </c>
+      <c r="Y140">
+        <v>2.3</v>
+      </c>
+      <c r="Z140">
+        <v>1.55</v>
+      </c>
+      <c r="AA140">
+        <v>5.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.14</v>
+      </c>
+      <c r="AC140">
+        <v>1.26</v>
+      </c>
+      <c r="AD140">
+        <v>4.68</v>
+      </c>
+      <c r="AE140">
+        <v>7.44</v>
+      </c>
+      <c r="AF140">
+        <v>1.03</v>
+      </c>
+      <c r="AG140">
+        <v>12</v>
+      </c>
+      <c r="AH140">
+        <v>1.18</v>
+      </c>
+      <c r="AI140">
+        <v>4.3</v>
+      </c>
+      <c r="AJ140">
+        <v>1.47</v>
+      </c>
+      <c r="AK140">
+        <v>2.42</v>
+      </c>
+      <c r="AL140">
+        <v>1.9</v>
+      </c>
+      <c r="AM140">
+        <v>1.8</v>
+      </c>
+      <c r="AN140">
+        <v>1.01</v>
+      </c>
+      <c r="AO140">
+        <v>1.08</v>
+      </c>
+      <c r="AP140">
+        <v>3.3</v>
+      </c>
+      <c r="AQ140">
+        <v>2.38</v>
+      </c>
+      <c r="AR140">
+        <v>0.5</v>
+      </c>
+      <c r="AS140">
+        <v>2.44</v>
+      </c>
+      <c r="AT140">
+        <v>0.44</v>
+      </c>
+      <c r="AU140">
+        <v>2.19</v>
+      </c>
+      <c r="AV140">
+        <v>1.01</v>
+      </c>
+      <c r="AW140">
+        <v>3.2</v>
+      </c>
+      <c r="AX140">
+        <v>1.26</v>
+      </c>
+      <c r="AY140">
+        <v>9.5</v>
+      </c>
+      <c r="AZ140">
+        <v>4.88</v>
+      </c>
+      <c r="BA140">
+        <v>1.36</v>
+      </c>
+      <c r="BB140">
+        <v>1.66</v>
+      </c>
+      <c r="BC140">
+        <v>2.14</v>
+      </c>
+      <c r="BD140">
+        <v>2.9</v>
+      </c>
+      <c r="BE140">
+        <v>4.1</v>
+      </c>
+      <c r="BF140">
+        <v>15</v>
+      </c>
+      <c r="BG140">
+        <v>6</v>
+      </c>
+      <c r="BH140">
+        <v>8</v>
+      </c>
+      <c r="BI140">
+        <v>9</v>
+      </c>
+      <c r="BJ140">
+        <v>23</v>
+      </c>
+      <c r="BK140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5182981</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45115.875</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>79</v>
+      </c>
+      <c r="H141" t="s">
+        <v>70</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>186</v>
+      </c>
+      <c r="P141" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>7</v>
+      </c>
+      <c r="S141">
+        <v>10</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.25</v>
+      </c>
+      <c r="V141">
+        <v>5.5</v>
+      </c>
+      <c r="W141">
+        <v>1.35</v>
+      </c>
+      <c r="X141">
+        <v>2.95</v>
+      </c>
+      <c r="Y141">
+        <v>2.55</v>
+      </c>
+      <c r="Z141">
+        <v>1.45</v>
+      </c>
+      <c r="AA141">
+        <v>7</v>
+      </c>
+      <c r="AB141">
+        <v>1.1</v>
+      </c>
+      <c r="AC141">
+        <v>1.58</v>
+      </c>
+      <c r="AD141">
+        <v>3.36</v>
+      </c>
+      <c r="AE141">
+        <v>4.77</v>
+      </c>
+      <c r="AF141">
+        <v>1.05</v>
+      </c>
+      <c r="AG141">
+        <v>9.5</v>
+      </c>
+      <c r="AH141">
+        <v>1.22</v>
+      </c>
+      <c r="AI141">
+        <v>3.8</v>
+      </c>
+      <c r="AJ141">
+        <v>1.72</v>
+      </c>
+      <c r="AK141">
+        <v>1.9</v>
+      </c>
+      <c r="AL141">
+        <v>1.72</v>
+      </c>
+      <c r="AM141">
+        <v>2</v>
+      </c>
+      <c r="AN141">
+        <v>1.1</v>
+      </c>
+      <c r="AO141">
+        <v>1.2</v>
+      </c>
+      <c r="AP141">
+        <v>2.1</v>
+      </c>
+      <c r="AQ141">
+        <v>1.5</v>
+      </c>
+      <c r="AR141">
+        <v>0.5</v>
+      </c>
+      <c r="AS141">
+        <v>1.67</v>
+      </c>
+      <c r="AT141">
+        <v>0.44</v>
+      </c>
+      <c r="AU141">
+        <v>1.47</v>
+      </c>
+      <c r="AV141">
+        <v>1.14</v>
+      </c>
+      <c r="AW141">
+        <v>2.61</v>
+      </c>
+      <c r="AX141">
+        <v>1.51</v>
+      </c>
+      <c r="AY141">
+        <v>8.5</v>
+      </c>
+      <c r="AZ141">
+        <v>3.16</v>
+      </c>
+      <c r="BA141">
+        <v>1.3</v>
+      </c>
+      <c r="BB141">
+        <v>1.55</v>
+      </c>
+      <c r="BC141">
+        <v>2</v>
+      </c>
+      <c r="BD141">
+        <v>2.63</v>
+      </c>
+      <c r="BE141">
+        <v>3.65</v>
+      </c>
+      <c r="BF141">
+        <v>4</v>
+      </c>
+      <c r="BG141">
+        <v>4</v>
+      </c>
+      <c r="BH141">
+        <v>3</v>
+      </c>
+      <c r="BI141">
+        <v>8</v>
+      </c>
+      <c r="BJ141">
+        <v>7</v>
+      </c>
+      <c r="BK141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5182982</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45116.66666666666</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>73</v>
+      </c>
+      <c r="H142" t="s">
+        <v>69</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>187</v>
+      </c>
+      <c r="P142" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q142">
+        <v>2</v>
+      </c>
+      <c r="R142">
+        <v>3</v>
+      </c>
+      <c r="S142">
+        <v>5</v>
+      </c>
+      <c r="T142">
+        <v>2.05</v>
+      </c>
+      <c r="U142">
+        <v>2.3</v>
+      </c>
+      <c r="V142">
+        <v>6</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>3.25</v>
+      </c>
+      <c r="Y142">
+        <v>2.63</v>
+      </c>
+      <c r="Z142">
+        <v>1.44</v>
+      </c>
+      <c r="AA142">
+        <v>6.5</v>
+      </c>
+      <c r="AB142">
+        <v>1.11</v>
+      </c>
+      <c r="AC142">
+        <v>1.8</v>
+      </c>
+      <c r="AD142">
+        <v>3.35</v>
+      </c>
+      <c r="AE142">
+        <v>3.4</v>
+      </c>
+      <c r="AF142">
+        <v>1.05</v>
+      </c>
+      <c r="AG142">
+        <v>11</v>
+      </c>
+      <c r="AH142">
+        <v>1.22</v>
+      </c>
+      <c r="AI142">
+        <v>4</v>
+      </c>
+      <c r="AJ142">
+        <v>1.92</v>
+      </c>
+      <c r="AK142">
+        <v>1.9</v>
+      </c>
+      <c r="AL142">
+        <v>1.83</v>
+      </c>
+      <c r="AM142">
+        <v>1.83</v>
+      </c>
+      <c r="AN142">
+        <v>1.11</v>
+      </c>
+      <c r="AO142">
+        <v>1.2</v>
+      </c>
+      <c r="AP142">
+        <v>2.08</v>
+      </c>
+      <c r="AQ142">
+        <v>1.88</v>
+      </c>
+      <c r="AR142">
+        <v>1</v>
+      </c>
+      <c r="AS142">
+        <v>2</v>
+      </c>
+      <c r="AT142">
+        <v>0.89</v>
+      </c>
+      <c r="AU142">
+        <v>2.39</v>
+      </c>
+      <c r="AV142">
+        <v>1.79</v>
+      </c>
+      <c r="AW142">
+        <v>4.18</v>
+      </c>
+      <c r="AX142">
+        <v>1.64</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>2.67</v>
+      </c>
+      <c r="BA142">
+        <v>1.26</v>
+      </c>
+      <c r="BB142">
+        <v>1.49</v>
+      </c>
+      <c r="BC142">
+        <v>1.85</v>
+      </c>
+      <c r="BD142">
+        <v>2.45</v>
+      </c>
+      <c r="BE142">
+        <v>3.35</v>
+      </c>
+      <c r="BF142">
+        <v>10</v>
+      </c>
+      <c r="BG142">
+        <v>4</v>
+      </c>
+      <c r="BH142">
+        <v>12</v>
+      </c>
+      <c r="BI142">
+        <v>5</v>
+      </c>
+      <c r="BJ142">
+        <v>22</v>
+      </c>
+      <c r="BK142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5182978</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45116.77083333334</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>6</v>
+      </c>
+      <c r="O143" t="s">
+        <v>188</v>
+      </c>
+      <c r="P143" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>5</v>
+      </c>
+      <c r="S143">
+        <v>10</v>
+      </c>
+      <c r="T143">
+        <v>2.4</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>4.75</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>2.75</v>
+      </c>
+      <c r="Y143">
+        <v>2.75</v>
+      </c>
+      <c r="Z143">
+        <v>1.4</v>
+      </c>
+      <c r="AA143">
+        <v>8</v>
+      </c>
+      <c r="AB143">
+        <v>1.08</v>
+      </c>
+      <c r="AC143">
+        <v>1.73</v>
+      </c>
+      <c r="AD143">
+        <v>3.65</v>
+      </c>
+      <c r="AE143">
+        <v>4</v>
+      </c>
+      <c r="AF143">
+        <v>1.05</v>
+      </c>
+      <c r="AG143">
+        <v>9.75</v>
+      </c>
+      <c r="AH143">
+        <v>1.28</v>
+      </c>
+      <c r="AI143">
+        <v>3.3</v>
+      </c>
+      <c r="AJ143">
+        <v>1.95</v>
+      </c>
+      <c r="AK143">
+        <v>1.78</v>
+      </c>
+      <c r="AL143">
+        <v>1.83</v>
+      </c>
+      <c r="AM143">
+        <v>1.83</v>
+      </c>
+      <c r="AN143">
+        <v>1.19</v>
+      </c>
+      <c r="AO143">
+        <v>1.22</v>
+      </c>
+      <c r="AP143">
+        <v>1.79</v>
+      </c>
+      <c r="AQ143">
+        <v>1.5</v>
+      </c>
+      <c r="AR143">
+        <v>1.38</v>
+      </c>
+      <c r="AS143">
+        <v>1.67</v>
+      </c>
+      <c r="AT143">
+        <v>1.22</v>
+      </c>
+      <c r="AU143">
+        <v>1.58</v>
+      </c>
+      <c r="AV143">
+        <v>1.36</v>
+      </c>
+      <c r="AW143">
+        <v>2.94</v>
+      </c>
+      <c r="AX143">
+        <v>1.55</v>
+      </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>2.92</v>
+      </c>
+      <c r="BA143">
+        <v>1.28</v>
+      </c>
+      <c r="BB143">
+        <v>1.52</v>
+      </c>
+      <c r="BC143">
+        <v>1.98</v>
+      </c>
+      <c r="BD143">
+        <v>2.55</v>
+      </c>
+      <c r="BE143">
+        <v>3.5</v>
+      </c>
+      <c r="BF143">
+        <v>6</v>
+      </c>
+      <c r="BG143">
+        <v>6</v>
+      </c>
+      <c r="BH143">
+        <v>7</v>
+      </c>
+      <c r="BI143">
+        <v>3</v>
+      </c>
+      <c r="BJ143">
+        <v>13</v>
+      </c>
+      <c r="BK143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5182979</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45116.85416666666</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>74</v>
+      </c>
+      <c r="H144" t="s">
+        <v>66</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>189</v>
+      </c>
+      <c r="P144" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q144">
+        <v>3</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>5</v>
+      </c>
+      <c r="T144">
+        <v>3.6</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>2.88</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>3</v>
+      </c>
+      <c r="Y144">
+        <v>2.63</v>
+      </c>
+      <c r="Z144">
+        <v>1.44</v>
+      </c>
+      <c r="AA144">
+        <v>7</v>
+      </c>
+      <c r="AB144">
+        <v>1.1</v>
+      </c>
+      <c r="AC144">
+        <v>2.57</v>
+      </c>
+      <c r="AD144">
+        <v>3.21</v>
+      </c>
+      <c r="AE144">
+        <v>2.23</v>
+      </c>
+      <c r="AF144">
+        <v>1.04</v>
+      </c>
+      <c r="AG144">
+        <v>10.5</v>
+      </c>
+      <c r="AH144">
+        <v>1.22</v>
+      </c>
+      <c r="AI144">
+        <v>3.75</v>
+      </c>
+      <c r="AJ144">
+        <v>2.02</v>
+      </c>
+      <c r="AK144">
+        <v>1.8</v>
+      </c>
+      <c r="AL144">
+        <v>1.6</v>
+      </c>
+      <c r="AM144">
+        <v>2.27</v>
+      </c>
+      <c r="AN144">
+        <v>1.53</v>
+      </c>
+      <c r="AO144">
+        <v>1.24</v>
+      </c>
+      <c r="AP144">
+        <v>1.31</v>
+      </c>
+      <c r="AQ144">
+        <v>1</v>
+      </c>
+      <c r="AR144">
+        <v>1.63</v>
+      </c>
+      <c r="AS144">
+        <v>0.89</v>
+      </c>
+      <c r="AT144">
+        <v>1.78</v>
+      </c>
+      <c r="AU144">
+        <v>1.64</v>
+      </c>
+      <c r="AV144">
+        <v>1.34</v>
+      </c>
+      <c r="AW144">
+        <v>2.98</v>
+      </c>
+      <c r="AX144">
+        <v>2.2</v>
+      </c>
+      <c r="AY144">
+        <v>7.5</v>
+      </c>
+      <c r="AZ144">
+        <v>1.91</v>
+      </c>
+      <c r="BA144">
+        <v>1.34</v>
+      </c>
+      <c r="BB144">
+        <v>1.62</v>
+      </c>
+      <c r="BC144">
+        <v>2.07</v>
+      </c>
+      <c r="BD144">
+        <v>2.75</v>
+      </c>
+      <c r="BE144">
+        <v>3.74</v>
+      </c>
+      <c r="BF144">
+        <v>2</v>
+      </c>
+      <c r="BG144">
+        <v>9</v>
+      </c>
+      <c r="BH144">
+        <v>6</v>
+      </c>
+      <c r="BI144">
+        <v>6</v>
+      </c>
+      <c r="BJ144">
+        <v>8</v>
+      </c>
+      <c r="BK144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5182980</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45117.875</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s">
+        <v>67</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>190</v>
+      </c>
+      <c r="P145" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q145">
+        <v>12</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
+        <v>15</v>
+      </c>
+      <c r="T145">
+        <v>1.73</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>7.5</v>
+      </c>
+      <c r="W145">
+        <v>1.22</v>
+      </c>
+      <c r="X145">
+        <v>4</v>
+      </c>
+      <c r="Y145">
+        <v>2</v>
+      </c>
+      <c r="Z145">
+        <v>1.73</v>
+      </c>
+      <c r="AA145">
+        <v>4.33</v>
+      </c>
+      <c r="AB145">
+        <v>1.2</v>
+      </c>
+      <c r="AC145">
+        <v>1.35</v>
+      </c>
+      <c r="AD145">
+        <v>4.94</v>
+      </c>
+      <c r="AE145">
+        <v>6.78</v>
+      </c>
+      <c r="AF145">
+        <v>1.02</v>
+      </c>
+      <c r="AG145">
+        <v>19</v>
+      </c>
+      <c r="AH145">
+        <v>1.11</v>
+      </c>
+      <c r="AI145">
+        <v>6.5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.4</v>
+      </c>
+      <c r="AK145">
+        <v>2.87</v>
+      </c>
+      <c r="AL145">
+        <v>1.67</v>
+      </c>
+      <c r="AM145">
+        <v>2.15</v>
+      </c>
+      <c r="AN145">
+        <v>1.06</v>
+      </c>
+      <c r="AO145">
+        <v>1.14</v>
+      </c>
+      <c r="AP145">
+        <v>2.5</v>
+      </c>
+      <c r="AQ145">
+        <v>2.63</v>
+      </c>
+      <c r="AR145">
+        <v>0.88</v>
+      </c>
+      <c r="AS145">
+        <v>2.67</v>
+      </c>
+      <c r="AT145">
+        <v>0.78</v>
+      </c>
+      <c r="AU145">
+        <v>2.54</v>
+      </c>
+      <c r="AV145">
+        <v>1.02</v>
+      </c>
+      <c r="AW145">
+        <v>3.56</v>
+      </c>
+      <c r="AX145">
+        <v>1.34</v>
+      </c>
+      <c r="AY145">
+        <v>9</v>
+      </c>
+      <c r="AZ145">
+        <v>3.88</v>
+      </c>
+      <c r="BA145">
+        <v>1.3</v>
+      </c>
+      <c r="BB145">
+        <v>1.56</v>
+      </c>
+      <c r="BC145">
+        <v>2</v>
+      </c>
+      <c r="BD145">
+        <v>2.62</v>
+      </c>
+      <c r="BE145">
+        <v>3.5</v>
+      </c>
+      <c r="BF145">
+        <v>13</v>
+      </c>
+      <c r="BG145">
+        <v>3</v>
+      </c>
+      <c r="BH145">
+        <v>9</v>
+      </c>
+      <c r="BI145">
+        <v>1</v>
+      </c>
+      <c r="BJ145">
+        <v>22</v>
+      </c>
+      <c r="BK145">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
